--- a/player_schedule.xlsx
+++ b/player_schedule.xlsx
@@ -5,30 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachwayne/Documents/GitHub/MLB-Extravaganza/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachwayne/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341CA343-ECAA-AC4A-81EF-CEFFE26E88E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB044B8-8F0B-944A-8FD7-F5AC0C18F82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="24060" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$180</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -47,85 +37,541 @@
     <t>Answers</t>
   </si>
   <si>
+    <t>2025-06-21</t>
+  </si>
+  <si>
+    <t>2025-04-20</t>
+  </si>
+  <si>
+    <t>2025-06-08</t>
+  </si>
+  <si>
+    <t>2025-07-27</t>
+  </si>
+  <si>
+    <t>2025-06-19</t>
+  </si>
+  <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-04-28</t>
+  </si>
+  <si>
+    <t>2025-06-09</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-05-19</t>
+  </si>
+  <si>
+    <t>2025-05-16</t>
+  </si>
+  <si>
+    <t>2025-07-24</t>
+  </si>
+  <si>
+    <t>2025-06-25</t>
+  </si>
+  <si>
+    <t>2025-06-10</t>
+  </si>
+  <si>
+    <t>2025-04-19</t>
+  </si>
+  <si>
+    <t>2025-07-26</t>
+  </si>
+  <si>
+    <t>2025-09-16</t>
+  </si>
+  <si>
+    <t>2025-06-11</t>
+  </si>
+  <si>
+    <t>2025-07-31</t>
+  </si>
+  <si>
+    <t>2025-08-24</t>
+  </si>
+  <si>
+    <t>2025-05-04</t>
+  </si>
+  <si>
+    <t>2025-04-13</t>
+  </si>
+  <si>
+    <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>2025-09-06</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>2025-06-12</t>
+  </si>
+  <si>
+    <t>2025-07-08</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-07-11</t>
+  </si>
+  <si>
+    <t>2025-09-19</t>
+  </si>
+  <si>
+    <t>2025-07-13</t>
+  </si>
+  <si>
+    <t>2025-08-21</t>
+  </si>
+  <si>
+    <t>2025-05-03</t>
+  </si>
+  <si>
+    <t>2025-07-28</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-05-05</t>
+  </si>
+  <si>
+    <t>2025-04-16</t>
+  </si>
+  <si>
+    <t>2025-05-25</t>
+  </si>
+  <si>
+    <t>2025-05-15</t>
+  </si>
+  <si>
+    <t>2025-06-28</t>
+  </si>
+  <si>
+    <t>2025-07-06</t>
+  </si>
+  <si>
+    <t>2025-05-30</t>
+  </si>
+  <si>
+    <t>2025-05-12</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>2025-08-23</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>2025-07-17</t>
+  </si>
+  <si>
+    <t>2025-08-09</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-05-29</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>2025-06-03</t>
+  </si>
+  <si>
+    <t>2025-04-30</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-07-09</t>
+  </si>
+  <si>
+    <t>2025-07-22</t>
+  </si>
+  <si>
+    <t>2025-09-21</t>
+  </si>
+  <si>
+    <t>2025-05-10</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-07-10</t>
+  </si>
+  <si>
+    <t>2025-04-26</t>
+  </si>
+  <si>
+    <t>2025-09-23</t>
+  </si>
+  <si>
+    <t>2025-08-30</t>
+  </si>
+  <si>
+    <t>2025-07-21</t>
+  </si>
+  <si>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2025-04-10</t>
+  </si>
+  <si>
+    <t>2025-05-01</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-05-06</t>
+  </si>
+  <si>
+    <t>2025-06-18</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-09-22</t>
+  </si>
+  <si>
+    <t>2025-04-14</t>
+  </si>
+  <si>
+    <t>2025-07-25</t>
+  </si>
+  <si>
+    <t>2025-08-10</t>
+  </si>
+  <si>
+    <t>2025-04-04</t>
+  </si>
+  <si>
+    <t>2025-08-17</t>
+  </si>
+  <si>
+    <t>2025-06-13</t>
+  </si>
+  <si>
+    <t>2025-06-07</t>
+  </si>
+  <si>
+    <t>2025-05-18</t>
+  </si>
+  <si>
+    <t>2025-07-14</t>
+  </si>
+  <si>
+    <t>2025-05-02</t>
+  </si>
+  <si>
+    <t>2025-05-14</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
+  </si>
+  <si>
+    <t>2025-08-20</t>
+  </si>
+  <si>
+    <t>2025-04-29</t>
+  </si>
+  <si>
+    <t>2025-04-27</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
+    <t>2025-06-22</t>
+  </si>
+  <si>
+    <t>2025-06-27</t>
+  </si>
+  <si>
+    <t>2025-05-13</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>2025-06-29</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>2025-09-01</t>
+  </si>
+  <si>
+    <t>2025-05-21</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-09-18</t>
+  </si>
+  <si>
+    <t>2025-06-04</t>
+  </si>
+  <si>
+    <t>2025-06-16</t>
+  </si>
+  <si>
+    <t>2025-05-07</t>
+  </si>
+  <si>
+    <t>2025-05-17</t>
+  </si>
+  <si>
+    <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-22</t>
+  </si>
+  <si>
+    <t>2025-06-05</t>
+  </si>
+  <si>
+    <t>2025-09-28</t>
+  </si>
+  <si>
+    <t>2025-07-30</t>
+  </si>
+  <si>
+    <t>2025-08-02</t>
+  </si>
+  <si>
+    <t>2025-07-18</t>
+  </si>
+  <si>
+    <t>2025-05-27</t>
+  </si>
+  <si>
+    <t>2025-04-09</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>2025-09-17</t>
+  </si>
+  <si>
+    <t>2025-05-23</t>
+  </si>
+  <si>
+    <t>2025-05-09</t>
+  </si>
+  <si>
+    <t>2025-06-23</t>
+  </si>
+  <si>
+    <t>2025-06-20</t>
+  </si>
+  <si>
+    <t>2025-05-08</t>
+  </si>
+  <si>
+    <t>2025-05-20</t>
+  </si>
+  <si>
+    <t>2025-04-11</t>
+  </si>
+  <si>
+    <t>2025-07-23</t>
+  </si>
+  <si>
+    <t>2025-07-04</t>
+  </si>
+  <si>
+    <t>2025-06-26</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-13</t>
+  </si>
+  <si>
+    <t>2025-07-02</t>
+  </si>
+  <si>
+    <t>2025-04-12</t>
+  </si>
+  <si>
+    <t>2025-04-17</t>
+  </si>
+  <si>
+    <t>2025-06-02</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>2025-04-21</t>
+  </si>
+  <si>
+    <t>2025-06-15</t>
+  </si>
+  <si>
+    <t>2025-09-07</t>
+  </si>
+  <si>
+    <t>2025-08-16</t>
+  </si>
+  <si>
+    <t>2025-09-14</t>
+  </si>
+  <si>
+    <t>2025-09-15</t>
+  </si>
+  <si>
+    <t>2025-06-06</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
+  </si>
+  <si>
+    <t>2025-07-20</t>
+  </si>
+  <si>
+    <t>2025-05-24</t>
+  </si>
+  <si>
+    <t>2025-09-27</t>
+  </si>
+  <si>
+    <t>2025-06-01</t>
+  </si>
+  <si>
+    <t>2025-05-22</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-04-25</t>
+  </si>
+  <si>
+    <t>2025-05-31</t>
+  </si>
+  <si>
+    <t>2025-09-24</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-05-11</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-20</t>
+  </si>
+  <si>
+    <t>2025-04-05</t>
+  </si>
+  <si>
+    <t>2025-05-26</t>
+  </si>
+  <si>
+    <t>2025-08-31</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-07-16</t>
+  </si>
+  <si>
+    <t>2025-07-12</t>
+  </si>
+  <si>
+    <t>2025-07-29</t>
+  </si>
+  <si>
+    <t>2025-06-30</t>
+  </si>
+  <si>
+    <t>2025-06-17</t>
+  </si>
+  <si>
+    <t>2025-08-03</t>
+  </si>
+  <si>
+    <t>2025-04-03</t>
+  </si>
+  <si>
     <t>2025-04-24</t>
   </si>
   <si>
-    <t>2025-04-29</t>
-  </si>
-  <si>
-    <t>2025-04-07</t>
-  </si>
-  <si>
-    <t>2025-04-28</t>
-  </si>
-  <si>
-    <t>2025-04-04</t>
-  </si>
-  <si>
-    <t>2025-04-09</t>
-  </si>
-  <si>
-    <t>2025-04-05</t>
+    <t>2025-06-14</t>
+  </si>
+  <si>
+    <t>2025-07-19</t>
   </si>
   <si>
     <t>2025-04-18</t>
   </si>
   <si>
-    <t>2025-04-13</t>
-  </si>
-  <si>
-    <t>2025-04-27</t>
-  </si>
-  <si>
-    <t>2025-04-22</t>
-  </si>
-  <si>
-    <t>2025-04-20</t>
-  </si>
-  <si>
-    <t>2025-04-10</t>
-  </si>
-  <si>
-    <t>2025-04-17</t>
-  </si>
-  <si>
-    <t>2025-04-06</t>
-  </si>
-  <si>
-    <t>2025-04-21</t>
-  </si>
-  <si>
-    <t>2025-04-16</t>
-  </si>
-  <si>
-    <t>2025-04-23</t>
-  </si>
-  <si>
-    <t>2025-04-12</t>
-  </si>
-  <si>
-    <t>2025-04-14</t>
-  </si>
-  <si>
-    <t>2025-04-25</t>
-  </si>
-  <si>
-    <t>2025-04-15</t>
-  </si>
-  <si>
-    <t>2025-04-11</t>
-  </si>
-  <si>
-    <t>2025-04-08</t>
-  </si>
-  <si>
-    <t>2025-04-30</t>
-  </si>
-  <si>
-    <t>2025-04-26</t>
-  </si>
-  <si>
-    <t>2025-04-19</t>
+    <t>2025-07-05</t>
+  </si>
+  <si>
+    <t>2025-07-15</t>
   </si>
   <si>
     <t>Aaron Judge</t>
@@ -665,6 +1111,543 @@
     <t>Zack Wheeler</t>
   </si>
   <si>
+    <t>image silhouettes/Aaron Judge_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Aaron Nola_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Adley Rutschman_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Adrian Gonzalez_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Alex Bregman_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Andrelton Simmons_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Andrew Benintendi_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Anthony Rizzo_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Aroldis Chapman_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/B.J. Upton_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Ben Zobrist_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Billy Hamilton_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Blake Snell_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Bo Bichette_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Bobby Witt_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Brandon Phillips_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Brian McCann_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Bryce Harper_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Buster Posey_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Carl Crawford_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Carlos Beltran_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Carlos Correa_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Carlos Quentin_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Carlos Rodon_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Cedric Mullins_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Charlie Blackmon_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Chase Utley_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Chris Sale_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Christian Yelich_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Cliff Lee_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Cody Bellinger_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Corbin Burnes_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Corey Hart_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Corey Seager_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Craig Kimbrel_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Curtis Granderson_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/DJ LeMahieu_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Dan Haren_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Daniel Murphy_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Dansby Swanson_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/David Ortiz_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/David Wright_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Dee Strange-Gordon_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Delmon Young_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Derek Jeter_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Didi Gregorius_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Edwin Encarnacion_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Eric Hosmer_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Ervin Santana_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Evan Longoria_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Fernando Tatis_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Francisco Cervelli_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Francisco Lindor_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Freddie Freeman_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Freddy Galvis_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/George Springer_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Gerrit Cole_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Hanley Ramirez_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Ian Kinsler_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Ichiro Suzuki_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/J.D. Martinez_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/J.T. Realmuto_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jacob deGrom_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jacoby Ellsbury_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jake Peavy_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/James Paxton_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jared Walsh_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jason Giambi_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jason Heyward_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jason Kipnis_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jason Varitek_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Javier Baez_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jay Bruce_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jean Segura_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jeff McNeil_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jered Weaver_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jhonny Peralta_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jimmy Rollins_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Joe Mauer_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Joey Gallo_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Joey Votto_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/John Lackey_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Johnny Cueto_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Johnny Damon_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jonathan Papelbon_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jorge Soler_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jose Altuve_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Jose Ramirez_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Josh Beckett_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Josh Donaldson_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Josh Hader_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Josh Hamilton_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Josh Reddick_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Juan Soto_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Julio Rodríguez_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Julio Urías_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Justin Morneau_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Justin Upton_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Justin Verlander_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Kole Calhoun_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Kris Bryant_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Kurt Suzuki_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Kyle Hendricks_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Kyle Schwarber_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Lance Lynn_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Logan Webb_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Lorenzo Cain_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Lucas Giolito_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Luis Castillo_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Madison Bumgarner_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Magglio Ordóñez_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Manny Machado_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Marcus Semien_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Mark Buehrle_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Mark Teixeira_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Martin Prado_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Matt Carpenter_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Matt Kemp_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Matt Olson_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Matt Wieters_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Max Muncy_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Max Scherzer_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Melky Cabrera_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Michael Brantley_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Mike Moustakas_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Mike Trout_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Mookie Betts_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Nathan Eovaldi_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Nelson Cruz_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Nelson Velázquez_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Nick Markakis_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Noah Syndergaard_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Nolan Arenado_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Ozzie Albies_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Pablo Sandoval_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Patrick Corbin_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Paul Goldschmidt_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Pete Alonso_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Phil Hughes_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Prince Fielder_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Rafael Furcal_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Rajai Davis_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Rich Hill_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Rick Porcello_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Robinson Cano_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Ronald Acuña_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Russell Martin_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Ryan Pressly_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Salvador Perez_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Shane Bieber_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Shane McClanahan_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Shin-Soo Choo_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Shohei Ohtani_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Sonny Gray_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Spencer Strider_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Stephen Drew_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Stephen Strasburg_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Tanner Roark_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Tim Anderson_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Todd Frazier_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Torii Hunter_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Trea Turner_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Trevor Story_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Troy Tulowitzki_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Ty France_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Tyler Glasnow_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Victor Martinez_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Vladimir Guerrero_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Wander Franco_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Whit Merrifield_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Willson Contreras_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Xander Bogaerts_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Yadier Molina_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Yasmani Grandal_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Yordan Alvarez_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Yu Darvish_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Zac Gallen_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Zack Greinke_silhouette.jpg</t>
+  </si>
+  <si>
+    <t>image silhouettes/Zack Wheeler_silhouette.jpg</t>
+  </si>
+  <si>
     <t>B.J. Upton, BJ Upton</t>
   </si>
   <si>
@@ -677,1015 +1660,19 @@
     <t>J.T. Realmuto, JT Realmuto</t>
   </si>
   <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>2025-05-02</t>
-  </si>
-  <si>
-    <t>2025-05-03</t>
-  </si>
-  <si>
-    <t>2025-05-04</t>
-  </si>
-  <si>
-    <t>2025-05-05</t>
-  </si>
-  <si>
-    <t>2025-05-06</t>
-  </si>
-  <si>
-    <t>2025-05-07</t>
-  </si>
-  <si>
-    <t>2025-05-08</t>
-  </si>
-  <si>
-    <t>2025-05-09</t>
-  </si>
-  <si>
-    <t>2025-05-10</t>
-  </si>
-  <si>
-    <t>2025-05-11</t>
-  </si>
-  <si>
-    <t>2025-05-12</t>
-  </si>
-  <si>
-    <t>2025-05-13</t>
-  </si>
-  <si>
-    <t>2025-05-14</t>
-  </si>
-  <si>
-    <t>2025-05-15</t>
-  </si>
-  <si>
-    <t>2025-05-16</t>
-  </si>
-  <si>
-    <t>2025-05-17</t>
-  </si>
-  <si>
-    <t>2025-05-18</t>
-  </si>
-  <si>
-    <t>2025-05-19</t>
-  </si>
-  <si>
-    <t>2025-05-20</t>
-  </si>
-  <si>
-    <t>2025-05-21</t>
-  </si>
-  <si>
-    <t>2025-05-22</t>
-  </si>
-  <si>
-    <t>2025-05-23</t>
-  </si>
-  <si>
-    <t>2025-05-24</t>
-  </si>
-  <si>
-    <t>2025-05-25</t>
-  </si>
-  <si>
-    <t>2025-05-26</t>
-  </si>
-  <si>
-    <t>2025-05-27</t>
-  </si>
-  <si>
-    <t>2025-05-28</t>
-  </si>
-  <si>
-    <t>2025-05-29</t>
-  </si>
-  <si>
-    <t>2025-05-30</t>
-  </si>
-  <si>
-    <t>2025-05-31</t>
-  </si>
-  <si>
-    <t>2025-06-01</t>
-  </si>
-  <si>
-    <t>2025-06-02</t>
-  </si>
-  <si>
-    <t>2025-06-03</t>
-  </si>
-  <si>
-    <t>2025-06-04</t>
-  </si>
-  <si>
-    <t>2025-06-05</t>
-  </si>
-  <si>
-    <t>2025-06-06</t>
-  </si>
-  <si>
-    <t>2025-06-07</t>
-  </si>
-  <si>
-    <t>2025-06-08</t>
-  </si>
-  <si>
-    <t>2025-06-09</t>
-  </si>
-  <si>
-    <t>2025-06-10</t>
-  </si>
-  <si>
-    <t>2025-06-11</t>
-  </si>
-  <si>
-    <t>2025-06-12</t>
-  </si>
-  <si>
-    <t>2025-06-13</t>
-  </si>
-  <si>
-    <t>2025-06-14</t>
-  </si>
-  <si>
-    <t>2025-06-15</t>
-  </si>
-  <si>
-    <t>2025-06-16</t>
-  </si>
-  <si>
-    <t>2025-06-17</t>
-  </si>
-  <si>
-    <t>2025-06-18</t>
-  </si>
-  <si>
-    <t>2025-06-19</t>
-  </si>
-  <si>
-    <t>2025-06-20</t>
-  </si>
-  <si>
-    <t>2025-06-21</t>
-  </si>
-  <si>
-    <t>2025-06-22</t>
-  </si>
-  <si>
-    <t>2025-06-23</t>
-  </si>
-  <si>
-    <t>2025-06-24</t>
-  </si>
-  <si>
-    <t>2025-06-25</t>
-  </si>
-  <si>
-    <t>2025-06-26</t>
-  </si>
-  <si>
-    <t>2025-06-27</t>
-  </si>
-  <si>
-    <t>2025-06-28</t>
-  </si>
-  <si>
-    <t>2025-06-29</t>
-  </si>
-  <si>
-    <t>2025-06-30</t>
-  </si>
-  <si>
-    <t>2025-07-01</t>
-  </si>
-  <si>
-    <t>2025-07-02</t>
-  </si>
-  <si>
-    <t>2025-07-03</t>
-  </si>
-  <si>
-    <t>2025-07-04</t>
-  </si>
-  <si>
-    <t>2025-07-05</t>
-  </si>
-  <si>
-    <t>2025-07-06</t>
-  </si>
-  <si>
-    <t>2025-07-07</t>
-  </si>
-  <si>
-    <t>2025-07-08</t>
-  </si>
-  <si>
-    <t>2025-07-09</t>
-  </si>
-  <si>
-    <t>2025-07-10</t>
-  </si>
-  <si>
-    <t>2025-07-11</t>
-  </si>
-  <si>
-    <t>2025-07-12</t>
-  </si>
-  <si>
-    <t>2025-07-13</t>
-  </si>
-  <si>
-    <t>2025-07-14</t>
-  </si>
-  <si>
-    <t>2025-07-15</t>
-  </si>
-  <si>
-    <t>2025-07-16</t>
-  </si>
-  <si>
-    <t>2025-07-17</t>
-  </si>
-  <si>
-    <t>2025-07-18</t>
-  </si>
-  <si>
-    <t>2025-07-19</t>
-  </si>
-  <si>
-    <t>2025-07-20</t>
-  </si>
-  <si>
-    <t>2025-07-21</t>
-  </si>
-  <si>
-    <t>2025-07-22</t>
-  </si>
-  <si>
-    <t>2025-07-23</t>
-  </si>
-  <si>
-    <t>2025-07-24</t>
-  </si>
-  <si>
-    <t>2025-07-25</t>
-  </si>
-  <si>
-    <t>2025-07-26</t>
-  </si>
-  <si>
-    <t>2025-07-27</t>
-  </si>
-  <si>
-    <t>2025-07-28</t>
-  </si>
-  <si>
-    <t>2025-07-29</t>
-  </si>
-  <si>
-    <t>2025-07-30</t>
-  </si>
-  <si>
-    <t>2025-07-31</t>
-  </si>
-  <si>
-    <t>2025-08-01</t>
-  </si>
-  <si>
-    <t>2025-08-02</t>
-  </si>
-  <si>
-    <t>2025-08-03</t>
-  </si>
-  <si>
-    <t>2025-08-04</t>
-  </si>
-  <si>
-    <t>2025-08-05</t>
-  </si>
-  <si>
-    <t>2025-08-06</t>
-  </si>
-  <si>
-    <t>2025-08-07</t>
-  </si>
-  <si>
-    <t>2025-08-08</t>
-  </si>
-  <si>
-    <t>2025-08-09</t>
-  </si>
-  <si>
-    <t>2025-08-10</t>
-  </si>
-  <si>
-    <t>2025-08-11</t>
-  </si>
-  <si>
-    <t>2025-08-12</t>
-  </si>
-  <si>
-    <t>2025-08-13</t>
-  </si>
-  <si>
-    <t>2025-08-14</t>
-  </si>
-  <si>
-    <t>2025-08-15</t>
-  </si>
-  <si>
-    <t>2025-08-16</t>
-  </si>
-  <si>
-    <t>2025-08-17</t>
-  </si>
-  <si>
-    <t>2025-08-18</t>
-  </si>
-  <si>
-    <t>2025-08-19</t>
-  </si>
-  <si>
-    <t>2025-08-20</t>
-  </si>
-  <si>
-    <t>2025-08-21</t>
-  </si>
-  <si>
-    <t>2025-08-22</t>
-  </si>
-  <si>
-    <t>2025-08-23</t>
-  </si>
-  <si>
-    <t>2025-08-24</t>
-  </si>
-  <si>
-    <t>2025-08-25</t>
-  </si>
-  <si>
-    <t>2025-08-26</t>
-  </si>
-  <si>
-    <t>2025-08-27</t>
-  </si>
-  <si>
-    <t>2025-08-28</t>
-  </si>
-  <si>
-    <t>2025-08-29</t>
-  </si>
-  <si>
-    <t>2025-08-30</t>
-  </si>
-  <si>
-    <t>2025-08-31</t>
-  </si>
-  <si>
-    <t>2025-09-01</t>
-  </si>
-  <si>
-    <t>2025-09-02</t>
-  </si>
-  <si>
-    <t>2025-09-03</t>
-  </si>
-  <si>
-    <t>2025-09-04</t>
-  </si>
-  <si>
-    <t>2025-09-05</t>
-  </si>
-  <si>
-    <t>2025-09-06</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
-    <t>2025-09-08</t>
-  </si>
-  <si>
-    <t>2025-09-09</t>
-  </si>
-  <si>
-    <t>2025-09-10</t>
-  </si>
-  <si>
-    <t>2025-09-11</t>
-  </si>
-  <si>
-    <t>2025-09-12</t>
-  </si>
-  <si>
-    <t>2025-09-13</t>
-  </si>
-  <si>
-    <t>2025-09-14</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>2025-09-16</t>
-  </si>
-  <si>
-    <t>2025-09-17</t>
-  </si>
-  <si>
-    <t>2025-09-18</t>
-  </si>
-  <si>
-    <t>2025-09-19</t>
-  </si>
-  <si>
-    <t>2025-09-20</t>
-  </si>
-  <si>
-    <t>2025-09-21</t>
-  </si>
-  <si>
-    <t>2025-09-22</t>
-  </si>
-  <si>
-    <t>2025-09-23</t>
-  </si>
-  <si>
-    <t>2025-09-24</t>
-  </si>
-  <si>
-    <t>2025-09-25</t>
-  </si>
-  <si>
-    <t>2025-09-26</t>
-  </si>
-  <si>
-    <t>2025-09-27</t>
-  </si>
-  <si>
-    <t>2025-09-28</t>
+    <t>Magglio Ordóñez, Magglio Ordonez</t>
+  </si>
+  <si>
+    <t>Nelson Velázquez, Nelson Velazquez</t>
   </si>
   <si>
     <t>Ronald Acuña, Ronald Acuna</t>
-  </si>
-  <si>
-    <t>Nelson Velázquez, Nelson Velazquez</t>
-  </si>
-  <si>
-    <t>Magglio Ordóñez, Magglio Ordonez</t>
-  </si>
-  <si>
-    <t>2025-04-03</t>
-  </si>
-  <si>
-    <t>image silhouettes/Aaron Judge_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Aaron Nola_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Adley Rutschman_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Adrian Gonzalez_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Alex Bregman_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Andrelton Simmons_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Andrew Benintendi_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Anthony Rizzo_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Aroldis Chapman_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/B.J. Upton_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Ben Zobrist_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Billy Hamilton_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Blake Snell_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Bo Bichette_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Bobby Witt_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Brandon Phillips_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Brian McCann_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Bryce Harper_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Buster Posey_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Carl Crawford_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Carlos Beltran_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Carlos Correa_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Carlos Quentin_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Carlos Rodon_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Cedric Mullins_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Charlie Blackmon_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Chase Utley_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Chris Sale_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Christian Yelich_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Cliff Lee_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Cody Bellinger_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Corbin Burnes_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Corey Hart_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Corey Seager_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Craig Kimbrel_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Curtis Granderson_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/DJ LeMahieu_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Dan Haren_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Daniel Murphy_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Dansby Swanson_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/David Ortiz_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/David Wright_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Dee Strange-Gordon_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Delmon Young_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Derek Jeter_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Didi Gregorius_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Edwin Encarnacion_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Eric Hosmer_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Ervin Santana_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Evan Longoria_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Fernando Tatis_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Francisco Cervelli_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Francisco Lindor_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Freddie Freeman_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Freddy Galvis_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/George Springer_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Gerrit Cole_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Hanley Ramirez_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Ian Kinsler_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Ichiro Suzuki_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/J.D. Martinez_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/J.T. Realmuto_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jacob deGrom_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jacoby Ellsbury_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jake Peavy_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/James Paxton_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jared Walsh_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jason Giambi_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jason Heyward_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jason Kipnis_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jason Varitek_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Javier Baez_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jay Bruce_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jean Segura_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jeff McNeil_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jered Weaver_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jhonny Peralta_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jimmy Rollins_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Joe Mauer_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Joey Gallo_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Joey Votto_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/John Lackey_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Johnny Cueto_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Johnny Damon_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jonathan Papelbon_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jorge Soler_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jose Altuve_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Jose Ramirez_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Josh Beckett_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Josh Donaldson_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Josh Hader_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Josh Hamilton_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Josh Reddick_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Juan Soto_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Julio Rodríguez_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Julio Urías_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Justin Morneau_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Justin Upton_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Justin Verlander_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Kole Calhoun_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Kris Bryant_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Kurt Suzuki_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Kyle Hendricks_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Kyle Schwarber_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Lance Lynn_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Logan Webb_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Lorenzo Cain_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Lucas Giolito_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Luis Castillo_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Madison Bumgarner_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Magglio Ordóñez_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Manny Machado_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Marcus Semien_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Mark Buehrle_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Mark Teixeira_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Martin Prado_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Matt Carpenter_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Matt Kemp_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Matt Olson_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Matt Wieters_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Max Muncy_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Max Scherzer_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Melky Cabrera_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Michael Brantley_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Mike Moustakas_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Mike Trout_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Mookie Betts_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Nathan Eovaldi_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Nelson Cruz_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Nelson Velázquez_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Nick Markakis_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Noah Syndergaard_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Nolan Arenado_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Ozzie Albies_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Pablo Sandoval_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Patrick Corbin_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Paul Goldschmidt_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Pete Alonso_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Phil Hughes_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Prince Fielder_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Rafael Furcal_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Rajai Davis_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Rich Hill_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Rick Porcello_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Robinson Cano_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Ronald Acuña_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Russell Martin_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Ryan Pressly_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Salvador Perez_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Shane Bieber_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Shane McClanahan_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Shin-Soo Choo_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Shohei Ohtani_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Sonny Gray_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Spencer Strider_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Stephen Drew_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Stephen Strasburg_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Tanner Roark_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Tim Anderson_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Todd Frazier_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Torii Hunter_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Trea Turner_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Trevor Story_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Troy Tulowitzki_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Ty France_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Tyler Glasnow_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Victor Martinez_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Vladimir Guerrero_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Wander Franco_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Whit Merrifield_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Willson Contreras_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Xander Bogaerts_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Yadier Molina_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Yasmani Grandal_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Yordan Alvarez_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Yu Darvish_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Zac Gallen_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Zack Greinke_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Zack Wheeler_silhouette.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1743,7 +1730,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2050,13 +2037,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2075,2511 +2062,2516 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>355</v>
       </c>
       <c r="C2" t="s">
-        <v>369</v>
+        <v>534</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>344</v>
       </c>
       <c r="C4" t="s">
-        <v>371</v>
+        <v>523</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>303</v>
       </c>
       <c r="C6" t="s">
-        <v>373</v>
+        <v>482</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
       <c r="C7" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
-        <v>375</v>
+        <v>480</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>377</v>
+        <v>490</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="C11" t="s">
-        <v>378</v>
+        <v>497</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="C12" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
       <c r="C13" t="s">
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
       <c r="C14" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="C15" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
       <c r="C16" t="s">
-        <v>383</v>
+        <v>498</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
-        <v>384</v>
+        <v>538</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>323</v>
       </c>
       <c r="C20" t="s">
-        <v>387</v>
+        <v>502</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
       <c r="C21" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>356</v>
       </c>
       <c r="C23" t="s">
-        <v>390</v>
+        <v>535</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>356</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
       <c r="C24" t="s">
-        <v>391</v>
+        <v>516</v>
       </c>
       <c r="D24" t="s">
-        <v>53</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="C25" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="D25" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="C26" t="s">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="C28" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="D28" t="s">
-        <v>57</v>
+        <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
       <c r="C29" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="D29" t="s">
-        <v>58</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
       <c r="C30" t="s">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>216</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
         <v>217</v>
       </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
       <c r="C32" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="D33" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
       <c r="C34" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
       <c r="C35" t="s">
-        <v>402</v>
+        <v>435</v>
       </c>
       <c r="D35" t="s">
-        <v>64</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>221</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="C36" t="s">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="D36" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="C37" t="s">
-        <v>404</v>
+        <v>488</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>223</v>
+        <v>127</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="C38" t="s">
-        <v>405</v>
+        <v>485</v>
       </c>
       <c r="D38" t="s">
-        <v>67</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>224</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>544</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
       <c r="C40" t="s">
-        <v>407</v>
+        <v>520</v>
       </c>
       <c r="D40" t="s">
-        <v>69</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="C41" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>279</v>
       </c>
       <c r="C42" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>270</v>
       </c>
       <c r="C43" t="s">
-        <v>410</v>
+        <v>449</v>
       </c>
       <c r="D43" t="s">
-        <v>72</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="C44" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>230</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
       <c r="C45" t="s">
-        <v>412</v>
+        <v>373</v>
       </c>
       <c r="D45" t="s">
-        <v>74</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>292</v>
       </c>
       <c r="C46" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="D46" t="s">
-        <v>75</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="C47" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
-        <v>415</v>
+        <v>372</v>
       </c>
       <c r="D48" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="C49" t="s">
-        <v>416</v>
+        <v>489</v>
       </c>
       <c r="D49" t="s">
-        <v>78</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>235</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>285</v>
       </c>
       <c r="C50" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="D50" t="s">
-        <v>79</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>335</v>
       </c>
       <c r="C51" t="s">
-        <v>418</v>
+        <v>514</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>237</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="C52" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="C53" t="s">
-        <v>420</v>
+        <v>511</v>
       </c>
       <c r="D53" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>239</v>
+        <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="C54" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>240</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>345</v>
       </c>
       <c r="C55" t="s">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
+        <v>345</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>300</v>
       </c>
       <c r="C56" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
       <c r="C57" t="s">
-        <v>424</v>
+        <v>509</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
       <c r="C58" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>244</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="C59" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>245</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
+        <v>338</v>
       </c>
       <c r="C60" t="s">
-        <v>427</v>
+        <v>517</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
-        <v>90</v>
+        <v>334</v>
       </c>
       <c r="C61" t="s">
-        <v>428</v>
+        <v>513</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>334</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="B62" t="s">
-        <v>91</v>
+        <v>320</v>
       </c>
       <c r="C62" t="s">
-        <v>429</v>
+        <v>499</v>
       </c>
       <c r="D62" t="s">
-        <v>212</v>
+        <v>320</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="C63" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="D63" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
       <c r="C64" t="s">
-        <v>431</v>
+        <v>468</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>250</v>
+        <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>295</v>
       </c>
       <c r="C65" t="s">
-        <v>432</v>
+        <v>474</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
       <c r="C66" t="s">
-        <v>433</v>
+        <v>508</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>252</v>
+        <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="C68" t="s">
-        <v>435</v>
+        <v>364</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>255</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="C70" t="s">
-        <v>437</v>
+        <v>376</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="C71" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>257</v>
+        <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>439</v>
+        <v>389</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>258</v>
+        <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="C73" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>357</v>
       </c>
       <c r="C74" t="s">
-        <v>441</v>
+        <v>536</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>324</v>
       </c>
       <c r="C75" t="s">
-        <v>442</v>
+        <v>503</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>324</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>290</v>
       </c>
       <c r="C76" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>290</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>262</v>
+        <v>174</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>353</v>
       </c>
       <c r="C77" t="s">
-        <v>444</v>
+        <v>532</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="C78" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>264</v>
+        <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
-        <v>446</v>
+        <v>366</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>187</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
       <c r="C80" t="s">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>308</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>263</v>
       </c>
       <c r="C81" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
       <c r="C82" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
       <c r="C83" t="s">
-        <v>450</v>
+        <v>486</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>307</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>269</v>
+        <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>113</v>
+        <v>276</v>
       </c>
       <c r="C84" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>270</v>
+        <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="C85" t="s">
-        <v>452</v>
+        <v>375</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>115</v>
+        <v>314</v>
       </c>
       <c r="C86" t="s">
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="D86" t="s">
-        <v>115</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="C87" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D87" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>273</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="C88" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>274</v>
+        <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
       <c r="C89" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>275</v>
+        <v>173</v>
       </c>
       <c r="B90" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
       <c r="C90" t="s">
-        <v>457</v>
+        <v>531</v>
       </c>
       <c r="D90" t="s">
-        <v>119</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="B91" t="s">
-        <v>120</v>
+        <v>336</v>
       </c>
       <c r="C91" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="D91" t="s">
-        <v>120</v>
+        <v>336</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>317</v>
       </c>
       <c r="C92" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="D92" t="s">
-        <v>121</v>
+        <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>278</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
       <c r="C93" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="B94" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
       <c r="C94" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>280</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>360</v>
       </c>
       <c r="C95" t="s">
-        <v>462</v>
+        <v>539</v>
       </c>
       <c r="D95" t="s">
-        <v>124</v>
+        <v>360</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>125</v>
+        <v>225</v>
       </c>
       <c r="C96" t="s">
-        <v>463</v>
+        <v>404</v>
       </c>
       <c r="D96" t="s">
-        <v>125</v>
+        <v>542</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
       <c r="C97" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D97" t="s">
-        <v>126</v>
+        <v>286</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>465</v>
+        <v>390</v>
       </c>
       <c r="D98" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>284</v>
+        <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="C99" t="s">
-        <v>466</v>
+        <v>420</v>
       </c>
       <c r="D99" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="C100" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
       <c r="D100" t="s">
-        <v>129</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>286</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
       <c r="C101" t="s">
-        <v>468</v>
+        <v>392</v>
       </c>
       <c r="D101" t="s">
-        <v>130</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="C102" t="s">
-        <v>469</v>
+        <v>529</v>
       </c>
       <c r="D102" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>288</v>
+        <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="C103" t="s">
-        <v>470</v>
+        <v>394</v>
       </c>
       <c r="D103" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>289</v>
+        <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>133</v>
+        <v>268</v>
       </c>
       <c r="C104" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="D104" t="s">
-        <v>133</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="B105" t="s">
-        <v>134</v>
+        <v>361</v>
       </c>
       <c r="C105" t="s">
-        <v>472</v>
+        <v>540</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>361</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>291</v>
+        <v>170</v>
       </c>
       <c r="B106" t="s">
-        <v>135</v>
+        <v>349</v>
       </c>
       <c r="C106" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="D106" t="s">
-        <v>135</v>
+        <v>349</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>292</v>
+        <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="C107" t="s">
-        <v>474</v>
+        <v>412</v>
       </c>
       <c r="D107" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>293</v>
+        <v>120</v>
       </c>
       <c r="B108" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
       <c r="C108" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D108" t="s">
-        <v>137</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="B109" t="s">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="C109" t="s">
-        <v>476</v>
+        <v>537</v>
       </c>
       <c r="D109" t="s">
-        <v>138</v>
+        <v>358</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>295</v>
+        <v>152</v>
       </c>
       <c r="B110" t="s">
-        <v>139</v>
+        <v>331</v>
       </c>
       <c r="C110" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="D110" t="s">
-        <v>139</v>
+        <v>331</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>296</v>
+        <v>71</v>
       </c>
       <c r="B111" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="C111" t="s">
-        <v>478</v>
+        <v>429</v>
       </c>
       <c r="D111" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
       <c r="B112" t="s">
-        <v>141</v>
+        <v>242</v>
       </c>
       <c r="C112" t="s">
-        <v>479</v>
+        <v>421</v>
       </c>
       <c r="D112" t="s">
-        <v>367</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>298</v>
+        <v>133</v>
       </c>
       <c r="B113" t="s">
-        <v>142</v>
+        <v>312</v>
       </c>
       <c r="C113" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="D113" t="s">
-        <v>142</v>
+        <v>546</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>299</v>
+        <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>481</v>
+        <v>374</v>
       </c>
       <c r="D114" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>300</v>
+        <v>82</v>
       </c>
       <c r="B115" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="C115" t="s">
-        <v>482</v>
+        <v>440</v>
       </c>
       <c r="D115" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>301</v>
+        <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="C116" t="s">
-        <v>483</v>
+        <v>378</v>
       </c>
       <c r="D116" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>302</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="C117" t="s">
-        <v>484</v>
+        <v>365</v>
       </c>
       <c r="D117" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="C118" t="s">
-        <v>485</v>
+        <v>397</v>
       </c>
       <c r="D118" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>304</v>
+        <v>172</v>
       </c>
       <c r="B119" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
       <c r="C119" t="s">
-        <v>486</v>
+        <v>530</v>
       </c>
       <c r="D119" t="s">
-        <v>148</v>
+        <v>351</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>305</v>
+        <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>149</v>
+        <v>297</v>
       </c>
       <c r="C120" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D120" t="s">
-        <v>149</v>
+        <v>297</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>306</v>
+        <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C121" t="s">
-        <v>488</v>
+        <v>381</v>
       </c>
       <c r="D121" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>307</v>
+        <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="C122" t="s">
-        <v>489</v>
+        <v>385</v>
       </c>
       <c r="D122" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>308</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
       <c r="C123" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D123" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>309</v>
+        <v>175</v>
       </c>
       <c r="B124" t="s">
-        <v>153</v>
+        <v>354</v>
       </c>
       <c r="C124" t="s">
-        <v>491</v>
+        <v>533</v>
       </c>
       <c r="D124" t="s">
-        <v>153</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>310</v>
+        <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s">
-        <v>492</v>
+        <v>368</v>
       </c>
       <c r="D125" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>311</v>
+        <v>33</v>
       </c>
       <c r="B126" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
       <c r="C126" t="s">
-        <v>493</v>
+        <v>391</v>
       </c>
       <c r="D126" t="s">
-        <v>155</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>312</v>
+        <v>58</v>
       </c>
       <c r="B127" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="C127" t="s">
-        <v>494</v>
+        <v>416</v>
       </c>
       <c r="D127" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>313</v>
+        <v>103</v>
       </c>
       <c r="B128" t="s">
-        <v>157</v>
+        <v>282</v>
       </c>
       <c r="C128" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="D128" t="s">
-        <v>157</v>
+        <v>282</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="B129" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="C129" t="s">
-        <v>496</v>
+        <v>437</v>
       </c>
       <c r="D129" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="B130" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
       <c r="C130" t="s">
-        <v>497</v>
+        <v>413</v>
       </c>
       <c r="D130" t="s">
-        <v>159</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>316</v>
+        <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>160</v>
+        <v>262</v>
       </c>
       <c r="C131" t="s">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="D131" t="s">
-        <v>366</v>
+        <v>262</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>317</v>
+        <v>161</v>
       </c>
       <c r="B132" t="s">
-        <v>161</v>
+        <v>340</v>
       </c>
       <c r="C132" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="D132" t="s">
-        <v>161</v>
+        <v>340</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>318</v>
+        <v>168</v>
       </c>
       <c r="B133" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
       <c r="C133" t="s">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="D133" t="s">
-        <v>162</v>
+        <v>347</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="B134" t="s">
-        <v>163</v>
+        <v>322</v>
       </c>
       <c r="C134" t="s">
         <v>501</v>
       </c>
       <c r="D134" t="s">
-        <v>163</v>
+        <v>322</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
       <c r="C135" t="s">
-        <v>502</v>
+        <v>388</v>
       </c>
       <c r="D135" t="s">
-        <v>164</v>
+        <v>209</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>321</v>
+        <v>96</v>
       </c>
       <c r="B136" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="C136" t="s">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="D136" t="s">
-        <v>165</v>
+        <v>275</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>322</v>
+        <v>147</v>
       </c>
       <c r="B137" t="s">
-        <v>166</v>
+        <v>326</v>
       </c>
       <c r="C137" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D137" t="s">
-        <v>166</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>323</v>
+        <v>85</v>
       </c>
       <c r="B138" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
       <c r="C138" t="s">
-        <v>505</v>
+        <v>443</v>
       </c>
       <c r="D138" t="s">
-        <v>167</v>
+        <v>264</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>324</v>
+        <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
       <c r="C139" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="D139" t="s">
-        <v>168</v>
+        <v>287</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>325</v>
+        <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
       <c r="C140" t="s">
-        <v>507</v>
+        <v>450</v>
       </c>
       <c r="D140" t="s">
-        <v>169</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>326</v>
+        <v>93</v>
       </c>
       <c r="B141" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="C141" t="s">
-        <v>508</v>
+        <v>451</v>
       </c>
       <c r="D141" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>327</v>
+        <v>37</v>
       </c>
       <c r="B142" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="C142" t="s">
-        <v>509</v>
+        <v>395</v>
       </c>
       <c r="D142" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
       <c r="B143" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
       <c r="C143" t="s">
-        <v>510</v>
+        <v>473</v>
       </c>
       <c r="D143" t="s">
-        <v>172</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>329</v>
+        <v>51</v>
       </c>
       <c r="B144" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="C144" t="s">
-        <v>511</v>
+        <v>409</v>
       </c>
       <c r="D144" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>330</v>
+        <v>24</v>
       </c>
       <c r="B145" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="C145" t="s">
-        <v>512</v>
+        <v>382</v>
       </c>
       <c r="D145" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>331</v>
+        <v>114</v>
       </c>
       <c r="B146" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="C146" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="D146" t="s">
-        <v>175</v>
+        <v>545</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>332</v>
+        <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="C147" t="s">
-        <v>514</v>
+        <v>407</v>
       </c>
       <c r="D147" t="s">
-        <v>365</v>
+        <v>228</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>333</v>
+        <v>66</v>
       </c>
       <c r="B148" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
       <c r="C148" t="s">
-        <v>515</v>
+        <v>424</v>
       </c>
       <c r="D148" t="s">
-        <v>177</v>
+        <v>245</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>334</v>
+        <v>56</v>
       </c>
       <c r="B149" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="C149" t="s">
-        <v>516</v>
+        <v>414</v>
       </c>
       <c r="D149" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>335</v>
+        <v>52</v>
       </c>
       <c r="B150" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="C150" t="s">
-        <v>517</v>
+        <v>410</v>
       </c>
       <c r="D150" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="B151" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="C151" t="s">
-        <v>518</v>
+        <v>428</v>
       </c>
       <c r="D151" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>337</v>
+        <v>167</v>
       </c>
       <c r="B152" t="s">
-        <v>181</v>
+        <v>346</v>
       </c>
       <c r="C152" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D152" t="s">
-        <v>181</v>
+        <v>346</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>338</v>
+        <v>105</v>
       </c>
       <c r="B153" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
       <c r="C153" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="D153" t="s">
-        <v>182</v>
+        <v>284</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>339</v>
+        <v>169</v>
       </c>
       <c r="B154" t="s">
-        <v>183</v>
+        <v>348</v>
       </c>
       <c r="C154" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D154" t="s">
-        <v>183</v>
+        <v>348</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>340</v>
+        <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C155" t="s">
-        <v>522</v>
+        <v>371</v>
       </c>
       <c r="D155" t="s">
-        <v>184</v>
+        <v>541</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>341</v>
+        <v>142</v>
       </c>
       <c r="B156" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
       <c r="C156" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="D156" t="s">
-        <v>185</v>
+        <v>321</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>342</v>
+        <v>61</v>
       </c>
       <c r="B157" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="C157" t="s">
-        <v>524</v>
+        <v>419</v>
       </c>
       <c r="D157" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>343</v>
+        <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C158" t="s">
-        <v>525</v>
+        <v>386</v>
       </c>
       <c r="D158" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>344</v>
+        <v>146</v>
       </c>
       <c r="B159" t="s">
-        <v>188</v>
+        <v>325</v>
       </c>
       <c r="C159" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="D159" t="s">
-        <v>188</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>345</v>
+        <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>189</v>
+        <v>342</v>
       </c>
       <c r="C160" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="D160" t="s">
-        <v>189</v>
+        <v>342</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>346</v>
+        <v>40</v>
       </c>
       <c r="B161" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="C161" t="s">
-        <v>528</v>
+        <v>398</v>
       </c>
       <c r="D161" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>347</v>
+        <v>136</v>
       </c>
       <c r="B162" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
       <c r="C162" t="s">
-        <v>529</v>
+        <v>494</v>
       </c>
       <c r="D162" t="s">
-        <v>191</v>
+        <v>315</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>348</v>
+        <v>75</v>
       </c>
       <c r="B163" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="C163" t="s">
-        <v>530</v>
+        <v>433</v>
       </c>
       <c r="D163" t="s">
-        <v>192</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>349</v>
+        <v>123</v>
       </c>
       <c r="B164" t="s">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="C164" t="s">
-        <v>531</v>
+        <v>481</v>
       </c>
       <c r="D164" t="s">
-        <v>193</v>
+        <v>302</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="B165" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
       <c r="C165" t="s">
-        <v>532</v>
+        <v>495</v>
       </c>
       <c r="D165" t="s">
-        <v>194</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>351</v>
+        <v>148</v>
       </c>
       <c r="B166" t="s">
-        <v>195</v>
+        <v>327</v>
       </c>
       <c r="C166" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="D166" t="s">
-        <v>195</v>
+        <v>327</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>352</v>
+        <v>149</v>
       </c>
       <c r="B167" t="s">
-        <v>196</v>
+        <v>328</v>
       </c>
       <c r="C167" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="D167" t="s">
-        <v>196</v>
+        <v>547</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>353</v>
+        <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C168" t="s">
-        <v>535</v>
+        <v>379</v>
       </c>
       <c r="D168" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>354</v>
+        <v>125</v>
       </c>
       <c r="B169" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
       <c r="C169" t="s">
-        <v>536</v>
+        <v>483</v>
       </c>
       <c r="D169" t="s">
-        <v>198</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>355</v>
+        <v>109</v>
       </c>
       <c r="B170" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="C170" t="s">
-        <v>537</v>
+        <v>467</v>
       </c>
       <c r="D170" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>356</v>
+        <v>35</v>
       </c>
       <c r="B171" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C171" t="s">
-        <v>538</v>
+        <v>393</v>
       </c>
       <c r="D171" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>357</v>
+        <v>164</v>
       </c>
       <c r="B172" t="s">
-        <v>201</v>
+        <v>343</v>
       </c>
       <c r="C172" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="D172" t="s">
-        <v>201</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>358</v>
+        <v>64</v>
       </c>
       <c r="B173" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="C173" t="s">
-        <v>540</v>
+        <v>422</v>
       </c>
       <c r="D173" t="s">
-        <v>202</v>
+        <v>543</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="B174" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
       <c r="C174" t="s">
-        <v>541</v>
+        <v>438</v>
       </c>
       <c r="D174" t="s">
-        <v>203</v>
+        <v>259</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>360</v>
+        <v>69</v>
       </c>
       <c r="B175" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
       <c r="C175" t="s">
-        <v>542</v>
+        <v>427</v>
       </c>
       <c r="D175" t="s">
-        <v>204</v>
+        <v>248</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>361</v>
+        <v>160</v>
       </c>
       <c r="B176" t="s">
-        <v>205</v>
+        <v>339</v>
       </c>
       <c r="C176" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="D176" t="s">
-        <v>205</v>
+        <v>339</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>362</v>
+        <v>104</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
       <c r="C177" t="s">
-        <v>544</v>
+        <v>462</v>
       </c>
       <c r="D177" t="s">
-        <v>206</v>
+        <v>283</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>363</v>
+        <v>101</v>
       </c>
       <c r="B178" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="C178" t="s">
-        <v>545</v>
+        <v>459</v>
       </c>
       <c r="D178" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>364</v>
+        <v>154</v>
       </c>
       <c r="B179" t="s">
-        <v>208</v>
+        <v>333</v>
       </c>
       <c r="C179" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="D179" t="s">
-        <v>208</v>
+        <v>333</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
-        <v>368</v>
+      <c r="A180" t="s">
+        <v>117</v>
       </c>
       <c r="B180" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
       <c r="C180" t="s">
-        <v>547</v>
+        <v>475</v>
       </c>
       <c r="D180" t="s">
-        <v>209</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D180" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D180">
+      <sortCondition ref="A1:A180"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/player_schedule.xlsx
+++ b/player_schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachwayne/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachwayne/Documents/GitHub/MLB-Extravaganza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB044B8-8F0B-944A-8FD7-F5AC0C18F82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8DE279-9638-AC48-A550-D23DFB6392F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="24060" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="545">
   <si>
     <t>date</t>
   </si>
@@ -376,9 +376,6 @@
     <t>2025-06-05</t>
   </si>
   <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
     <t>2025-07-30</t>
   </si>
   <si>
@@ -958,9 +955,6 @@
     <t>Nathan Eovaldi</t>
   </si>
   <si>
-    <t>Nelson Cruz</t>
-  </si>
-  <si>
     <t>Nelson Velázquez</t>
   </si>
   <si>
@@ -1493,9 +1487,6 @@
   </si>
   <si>
     <t>image silhouettes/Nathan Eovaldi_silhouette.jpg</t>
-  </si>
-  <si>
-    <t>image silhouettes/Nelson Cruz_silhouette.jpg</t>
   </si>
   <si>
     <t>image silhouettes/Nelson Velázquez_silhouette.jpg</t>
@@ -2035,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="A180" sqref="A180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2062,16 +2053,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2079,27 +2070,27 @@
         <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C4" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D4" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2107,27 +2098,27 @@
         <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2135,27 +2126,27 @@
         <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C8" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2163,41 +2154,41 @@
         <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="C10" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="D10" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2205,13 +2196,13 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2219,13 +2210,13 @@
         <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C13" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2233,13 +2224,13 @@
         <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2247,41 +2238,41 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C16" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C17" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D17" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2289,13 +2280,13 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2303,27 +2294,27 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C20" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2331,13 +2322,13 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2345,41 +2336,41 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C23" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C24" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2387,13 +2378,13 @@
         <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C25" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2401,13 +2392,13 @@
         <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C26" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2415,13 +2406,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2429,13 +2420,13 @@
         <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C28" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2443,13 +2434,13 @@
         <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C29" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2457,13 +2448,13 @@
         <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C30" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2471,13 +2462,13 @@
         <v>90</v>
       </c>
       <c r="B31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C31" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2485,13 +2476,13 @@
         <v>38</v>
       </c>
       <c r="B32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C32" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D32" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2499,13 +2490,13 @@
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2513,13 +2504,13 @@
         <v>41</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C34" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2527,13 +2518,13 @@
         <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C35" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2541,41 +2532,41 @@
         <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C36" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C37" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D37" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C38" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2583,27 +2574,27 @@
         <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D39" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C40" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D40" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2611,13 +2602,13 @@
         <v>48</v>
       </c>
       <c r="B41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C41" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2625,13 +2616,13 @@
         <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C42" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2639,13 +2630,13 @@
         <v>91</v>
       </c>
       <c r="B43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C43" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2653,13 +2644,13 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C44" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D44" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2667,13 +2658,13 @@
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2681,13 +2672,13 @@
         <v>113</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C46" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2695,13 +2686,13 @@
         <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C47" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D47" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2709,27 +2700,27 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C48" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C49" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2737,55 +2728,55 @@
         <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C50" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C51" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C52" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C53" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D53" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2793,55 +2784,55 @@
         <v>43</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C55" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D55" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C56" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D56" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C57" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2849,13 +2840,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D58" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2863,55 +2854,55 @@
         <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C59" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D59" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B60" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C60" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D60" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C61" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D61" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C62" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D62" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2919,13 +2910,13 @@
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C63" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2933,13 +2924,13 @@
         <v>110</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C64" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D64" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2947,27 +2938,27 @@
         <v>116</v>
       </c>
       <c r="B65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C65" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C66" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D66" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2975,13 +2966,13 @@
         <v>87</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C67" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2989,13 +2980,13 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D68" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -3003,13 +2994,13 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3017,13 +3008,13 @@
         <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3031,13 +3022,13 @@
         <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -3045,13 +3036,13 @@
         <v>31</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C72" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3059,41 +3050,41 @@
         <v>86</v>
       </c>
       <c r="B73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C73" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D73" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B74" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C74" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D74" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C75" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D75" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3101,27 +3092,27 @@
         <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C76" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D76" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C77" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D77" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3129,13 +3120,13 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C78" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3143,27 +3134,27 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C79" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B80" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C80" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D80" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3171,13 +3162,13 @@
         <v>4</v>
       </c>
       <c r="B81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C81" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D81" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3185,27 +3176,27 @@
         <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C82" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C83" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D83" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3213,13 +3204,13 @@
         <v>97</v>
       </c>
       <c r="B84" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C84" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3227,27 +3218,27 @@
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C85" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B86" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C86" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D86" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -3255,13 +3246,13 @@
         <v>99</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C87" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D87" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3269,13 +3260,13 @@
         <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3283,55 +3274,55 @@
         <v>102</v>
       </c>
       <c r="B89" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C89" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D89" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C90" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D90" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B91" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C91" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D91" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B92" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C92" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D92" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3339,41 +3330,41 @@
         <v>50</v>
       </c>
       <c r="B93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D93" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B94" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C94" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D94" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B95" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C95" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D95" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3381,13 +3372,13 @@
         <v>46</v>
       </c>
       <c r="B96" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C96" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D96" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3395,13 +3386,13 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C97" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D97" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3409,13 +3400,13 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C98" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3423,13 +3414,13 @@
         <v>62</v>
       </c>
       <c r="B99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C99" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3437,13 +3428,13 @@
         <v>67</v>
       </c>
       <c r="B100" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C100" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D100" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3451,27 +3442,27 @@
         <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C101" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D101" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B102" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C102" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D102" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3479,13 +3470,13 @@
         <v>36</v>
       </c>
       <c r="B103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C103" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3493,41 +3484,41 @@
         <v>89</v>
       </c>
       <c r="B104" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C104" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D104" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B105" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C105" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D105" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B106" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C106" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D106" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3535,55 +3526,55 @@
         <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C107" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D107" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C108" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D108" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B109" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C109" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D109" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C110" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D110" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3591,13 +3582,13 @@
         <v>71</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3605,27 +3596,27 @@
         <v>63</v>
       </c>
       <c r="B112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C112" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B113" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C113" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D113" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3633,13 +3624,13 @@
         <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C114" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3647,13 +3638,13 @@
         <v>82</v>
       </c>
       <c r="B115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C115" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D115" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3661,13 +3652,13 @@
         <v>20</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C116" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3675,13 +3666,13 @@
         <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C117" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D117" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3689,41 +3680,41 @@
         <v>39</v>
       </c>
       <c r="B118" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C118" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D118" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B119" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C119" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D119" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C120" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D120" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3731,13 +3722,13 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C121" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3745,41 +3736,41 @@
         <v>27</v>
       </c>
       <c r="B122" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C122" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D122" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B123" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C123" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D123" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B124" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C124" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D124" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3787,13 +3778,13 @@
         <v>10</v>
       </c>
       <c r="B125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C125" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D125" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3801,13 +3792,13 @@
         <v>33</v>
       </c>
       <c r="B126" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C126" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D126" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3815,13 +3806,13 @@
         <v>58</v>
       </c>
       <c r="B127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C127" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D127" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3829,13 +3820,13 @@
         <v>103</v>
       </c>
       <c r="B128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C128" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="D128" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3843,13 +3834,13 @@
         <v>79</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C129" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3857,13 +3848,13 @@
         <v>55</v>
       </c>
       <c r="B130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C130" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D130" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3871,55 +3862,55 @@
         <v>83</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C131" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D131" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C132" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D132" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C133" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D133" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C134" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D134" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3927,13 +3918,13 @@
         <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C135" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D135" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3941,27 +3932,27 @@
         <v>96</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B137" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C137" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D137" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3969,13 +3960,13 @@
         <v>85</v>
       </c>
       <c r="B138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C138" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D138" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -3983,13 +3974,13 @@
         <v>108</v>
       </c>
       <c r="B139" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C139" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D139" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -3997,13 +3988,13 @@
         <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C140" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D140" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -4011,13 +4002,13 @@
         <v>93</v>
       </c>
       <c r="B141" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C141" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D141" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -4025,13 +4016,13 @@
         <v>37</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C142" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D142" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -4039,13 +4030,13 @@
         <v>115</v>
       </c>
       <c r="B143" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C143" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D143" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -4053,13 +4044,13 @@
         <v>51</v>
       </c>
       <c r="B144" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C144" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D144" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -4067,13 +4058,13 @@
         <v>24</v>
       </c>
       <c r="B145" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C145" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D145" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -4081,13 +4072,13 @@
         <v>114</v>
       </c>
       <c r="B146" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C146" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D146" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -4095,13 +4086,13 @@
         <v>49</v>
       </c>
       <c r="B147" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C147" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D147" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -4109,13 +4100,13 @@
         <v>66</v>
       </c>
       <c r="B148" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C148" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D148" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -4123,13 +4114,13 @@
         <v>56</v>
       </c>
       <c r="B149" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C149" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D149" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -4137,13 +4128,13 @@
         <v>52</v>
       </c>
       <c r="B150" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C150" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D150" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -4151,27 +4142,27 @@
         <v>70</v>
       </c>
       <c r="B151" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C151" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D151" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B152" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C152" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D152" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -4179,27 +4170,27 @@
         <v>105</v>
       </c>
       <c r="B153" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C153" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D153" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B154" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C154" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D154" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -4207,27 +4198,27 @@
         <v>13</v>
       </c>
       <c r="B155" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C155" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D155" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B156" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C156" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D156" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -4235,13 +4226,13 @@
         <v>61</v>
       </c>
       <c r="B157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C157" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -4249,41 +4240,41 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C158" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D158" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B159" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C159" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D159" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B160" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C160" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D160" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -4291,27 +4282,27 @@
         <v>40</v>
       </c>
       <c r="B161" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C161" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D161" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C162" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -4319,69 +4310,69 @@
         <v>75</v>
       </c>
       <c r="B163" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C163" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D163" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B164" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C164" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D164" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B165" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C165" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D165" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C166" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C167" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D167" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -4389,27 +4380,27 @@
         <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C168" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D168" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B169" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C169" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D169" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -4417,13 +4408,13 @@
         <v>109</v>
       </c>
       <c r="B170" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C170" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D170" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -4431,27 +4422,27 @@
         <v>35</v>
       </c>
       <c r="B171" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C171" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D171" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B172" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C172" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D172" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -4459,13 +4450,13 @@
         <v>64</v>
       </c>
       <c r="B173" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C173" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D173" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -4473,13 +4464,13 @@
         <v>80</v>
       </c>
       <c r="B174" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C174" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D174" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -4487,27 +4478,27 @@
         <v>69</v>
       </c>
       <c r="B175" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C175" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D175" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B176" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C176" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D176" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -4515,13 +4506,13 @@
         <v>104</v>
       </c>
       <c r="B177" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C177" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D177" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -4529,41 +4520,27 @@
         <v>101</v>
       </c>
       <c r="B178" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C178" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D178" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B179" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C179" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D179" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>117</v>
-      </c>
-      <c r="B180" t="s">
-        <v>296</v>
-      </c>
-      <c r="C180" t="s">
-        <v>475</v>
-      </c>
-      <c r="D180" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/player_schedule.xlsx
+++ b/player_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachwayne/Documents/GitHub/MLB-Extravaganza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8DE279-9638-AC48-A550-D23DFB6392F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427246B-8576-F549-861E-5AB748EAA5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="24060" windowHeight="14040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,25 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$180</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="716">
   <si>
     <t>date</t>
   </si>
@@ -1639,25 +1652,538 @@
     <t>image silhouettes/Zack Wheeler_silhouette.jpg</t>
   </si>
   <si>
-    <t>B.J. Upton, BJ Upton</t>
-  </si>
-  <si>
-    <t>Dee Gordon, Dee Strange-Gordon</t>
-  </si>
-  <si>
-    <t>J.D. Martinez, JD Martinez</t>
-  </si>
-  <si>
-    <t>J.T. Realmuto, JT Realmuto</t>
-  </si>
-  <si>
-    <t>Magglio Ordóñez, Magglio Ordonez</t>
-  </si>
-  <si>
-    <t>Nelson Velázquez, Nelson Velazquez</t>
-  </si>
-  <si>
-    <t>Ronald Acuña, Ronald Acuna</t>
+    <t>Yadier Molina, Molina</t>
+  </si>
+  <si>
+    <t>Aaron Judge, Judge</t>
+  </si>
+  <si>
+    <t>Trea Turner, Turner</t>
+  </si>
+  <si>
+    <t>Evan Longoria, Longoria</t>
+  </si>
+  <si>
+    <t>Max Muncy, Muncy</t>
+  </si>
+  <si>
+    <t>Jay Bruce, Bruce</t>
+  </si>
+  <si>
+    <t>Matt Olson, Olson</t>
+  </si>
+  <si>
+    <t>Jason Kipnis, Kipnis</t>
+  </si>
+  <si>
+    <t>Mark Buehrle, Buehrle</t>
+  </si>
+  <si>
+    <t>Patrick Corbin, Corbin</t>
+  </si>
+  <si>
+    <t>Carlos Quentin, Quentin</t>
+  </si>
+  <si>
+    <t>Jimmy Rollins, Rollins</t>
+  </si>
+  <si>
+    <t>Jason Heyward, Heyward</t>
+  </si>
+  <si>
+    <t>Daniel Murphy, Murphy</t>
+  </si>
+  <si>
+    <t>Paul Goldschmidt, Goldschmidt</t>
+  </si>
+  <si>
+    <t>Zac Gallen, Gallen</t>
+  </si>
+  <si>
+    <t>Brandon Phillips, Phillips</t>
+  </si>
+  <si>
+    <t>Aaron Nola, Nola</t>
+  </si>
+  <si>
+    <t>Rafael Furcal, Furcal</t>
+  </si>
+  <si>
+    <t>Charlie Blackmon, Blackmon</t>
+  </si>
+  <si>
+    <t>Andrelton Simmons, Simmons</t>
+  </si>
+  <si>
+    <t>Yasmani Grandal, Grandal</t>
+  </si>
+  <si>
+    <t>Spencer Strider, Strider</t>
+  </si>
+  <si>
+    <t>Jake Peavy, Peavy</t>
+  </si>
+  <si>
+    <t>Josh Hamilton, Hamilton</t>
+  </si>
+  <si>
+    <t>Anthony Rizzo, Rizzo</t>
+  </si>
+  <si>
+    <t>Josh Hader, Hader</t>
+  </si>
+  <si>
+    <t>Gerrit Cole, Cole</t>
+  </si>
+  <si>
+    <t>Jason Varitek, Varitek</t>
+  </si>
+  <si>
+    <t>Jose Altuve, Altuve</t>
+  </si>
+  <si>
+    <t>Craig Kimbrel, Kimbrel</t>
+  </si>
+  <si>
+    <t>Carlos Correa, Correa</t>
+  </si>
+  <si>
+    <t>Dan Haren, Haren</t>
+  </si>
+  <si>
+    <t>Jean Segura, Segura</t>
+  </si>
+  <si>
+    <t>Luis Castillo, Castillo</t>
+  </si>
+  <si>
+    <t>Mookie Betts, Betts</t>
+  </si>
+  <si>
+    <t>Michael Brantley, Brantley</t>
+  </si>
+  <si>
+    <t>J.T. Realmuto, JT Realmuto, Realmuto</t>
+  </si>
+  <si>
+    <t>Tim Anderson, Anderson</t>
+  </si>
+  <si>
+    <t>Derek Jeter, Jeter</t>
+  </si>
+  <si>
+    <t>Justin Morneau, Morneau</t>
+  </si>
+  <si>
+    <t>Jose Ramirez, Ramirez</t>
+  </si>
+  <si>
+    <t>David Ortiz, Ortiz</t>
+  </si>
+  <si>
+    <t>Billy Hamilton, Hamilton</t>
+  </si>
+  <si>
+    <t>Madison Bumgarner, Bumgarner</t>
+  </si>
+  <si>
+    <t>Jonathan Papelbon, Papelbon</t>
+  </si>
+  <si>
+    <t>Ben Zobrist, Zobrist</t>
+  </si>
+  <si>
+    <t>Nathan Eovaldi, Eovaldi</t>
+  </si>
+  <si>
+    <t>Kyle Hendricks, Hendricks</t>
+  </si>
+  <si>
+    <t>Shohei Ohtani, Ohtani</t>
+  </si>
+  <si>
+    <t>Melky Cabrera, Cabrera</t>
+  </si>
+  <si>
+    <t>Shane Bieber, Bieber</t>
+  </si>
+  <si>
+    <t>Dansby Swanson, Swanson</t>
+  </si>
+  <si>
+    <t>Trevor Story, Story</t>
+  </si>
+  <si>
+    <t>Matt Kemp, Kemp</t>
+  </si>
+  <si>
+    <t>Ryan Pressly, Pressly</t>
+  </si>
+  <si>
+    <t>Freddie Freeman, Freeman</t>
+  </si>
+  <si>
+    <t>Delmon Young, Young</t>
+  </si>
+  <si>
+    <t>Stephen Drew, Drew</t>
+  </si>
+  <si>
+    <t>Shin-Soo Choo, Choo</t>
+  </si>
+  <si>
+    <t>Pete Alonso, Alonso</t>
+  </si>
+  <si>
+    <t>George Springer, Springer</t>
+  </si>
+  <si>
+    <t>Lorenzo Cain, Cain</t>
+  </si>
+  <si>
+    <t>Marcus Semien, Semien</t>
+  </si>
+  <si>
+    <t>Russell Martin, Martin</t>
+  </si>
+  <si>
+    <t>Johnny Damon, Damon</t>
+  </si>
+  <si>
+    <t>Adley Rutschman, Rutschman</t>
+  </si>
+  <si>
+    <t>Aroldis Chapman, Chapman</t>
+  </si>
+  <si>
+    <t>Bobby Witt, Witt</t>
+  </si>
+  <si>
+    <t>Buster Posey, Posey</t>
+  </si>
+  <si>
+    <t>Chris Sale, Sale</t>
+  </si>
+  <si>
+    <t>Johnny Cueto, Cueto</t>
+  </si>
+  <si>
+    <t>Yordan Alvarez, Alvarez</t>
+  </si>
+  <si>
+    <t>Rajai Davis, Davis</t>
+  </si>
+  <si>
+    <t>Lucas Giolito, Giolito</t>
+  </si>
+  <si>
+    <t>Willson Contreras, Contreras</t>
+  </si>
+  <si>
+    <t>Jeff McNeil, McNeil</t>
+  </si>
+  <si>
+    <t>Alex Bregman, Bregman</t>
+  </si>
+  <si>
+    <t>Mike Trout, Trout</t>
+  </si>
+  <si>
+    <t>Joey Votto, Votto</t>
+  </si>
+  <si>
+    <t>Julio Rodríguez, Rodríguez</t>
+  </si>
+  <si>
+    <t>Mike Moustakas, Moustakas</t>
+  </si>
+  <si>
+    <t>Juan Soto, Soto</t>
+  </si>
+  <si>
+    <t>Bo Bichette, Bichette</t>
+  </si>
+  <si>
+    <t>Noah Syndergaard, Syndergaard</t>
+  </si>
+  <si>
+    <t>Julio Urías, Urías</t>
+  </si>
+  <si>
+    <t>David Wright, Wright</t>
+  </si>
+  <si>
+    <t>Justin Verlander, Verlander</t>
+  </si>
+  <si>
+    <t>Whit Merrifield, Merrifield</t>
+  </si>
+  <si>
+    <t>Sonny Gray, Gray</t>
+  </si>
+  <si>
+    <t>Pablo Sandoval, Sandoval</t>
+  </si>
+  <si>
+    <t>Edwin Encarnacion, Encarnacion</t>
+  </si>
+  <si>
+    <t>Nick Markakis, Markakis</t>
+  </si>
+  <si>
+    <t>Zack Greinke, Greinke</t>
+  </si>
+  <si>
+    <t>Kyle Schwarber, Schwarber</t>
+  </si>
+  <si>
+    <t>Christian Yelich, Yelich</t>
+  </si>
+  <si>
+    <t>Ian Kinsler, Kinsler</t>
+  </si>
+  <si>
+    <t>Jacoby Ellsbury, Ellsbury</t>
+  </si>
+  <si>
+    <t>Cody Bellinger, Bellinger</t>
+  </si>
+  <si>
+    <t>Vladimir Guerrero, Guerrero</t>
+  </si>
+  <si>
+    <t>Corey Hart, Hart</t>
+  </si>
+  <si>
+    <t>Jorge Soler, Soler</t>
+  </si>
+  <si>
+    <t>Zack Wheeler, Wheeler</t>
+  </si>
+  <si>
+    <t>Victor Martinez, Martinez</t>
+  </si>
+  <si>
+    <t>Fernando Tatis, Tatis</t>
+  </si>
+  <si>
+    <t>Matt Carpenter, Carpenter</t>
+  </si>
+  <si>
+    <t>Yu Darvish, Darvish</t>
+  </si>
+  <si>
+    <t>Salvador Perez, Perez</t>
+  </si>
+  <si>
+    <t>Jason Giambi, Giambi</t>
+  </si>
+  <si>
+    <t>Ichiro Suzuki, Suzuki</t>
+  </si>
+  <si>
+    <t>Blake Snell, Snell</t>
+  </si>
+  <si>
+    <t>Joe Mauer, Mauer</t>
+  </si>
+  <si>
+    <t>Brian McCann, McCann</t>
+  </si>
+  <si>
+    <t>Adrian Gonzalez, Gonzalez</t>
+  </si>
+  <si>
+    <t>Curtis Granderson, Granderson</t>
+  </si>
+  <si>
+    <t>Wander Franco, Franco</t>
+  </si>
+  <si>
+    <t>Mark Teixeira, Teixeira</t>
+  </si>
+  <si>
+    <t>Carl Crawford, Crawford</t>
+  </si>
+  <si>
+    <t>Carlos Rodon, Rodon</t>
+  </si>
+  <si>
+    <t>Martin Prado, Prado</t>
+  </si>
+  <si>
+    <t>Xander Bogaerts, Bogaerts</t>
+  </si>
+  <si>
+    <t>Andrew Benintendi, Benintendi</t>
+  </si>
+  <si>
+    <t>Cliff Lee, Lee</t>
+  </si>
+  <si>
+    <t>Freddy Galvis, Galvis</t>
+  </si>
+  <si>
+    <t>Kole Calhoun, Calhoun</t>
+  </si>
+  <si>
+    <t>Jered Weaver, Weaver</t>
+  </si>
+  <si>
+    <t>Francisco Cervelli, Cervelli</t>
+  </si>
+  <si>
+    <t>Joey Gallo, Gallo</t>
+  </si>
+  <si>
+    <t>Tanner Roark, Roark</t>
+  </si>
+  <si>
+    <t>Ty France, France</t>
+  </si>
+  <si>
+    <t>Prince Fielder, Fielder</t>
+  </si>
+  <si>
+    <t>Chase Utley, Utley</t>
+  </si>
+  <si>
+    <t>Josh Reddick, Reddick</t>
+  </si>
+  <si>
+    <t>Rick Porcello, Porcello</t>
+  </si>
+  <si>
+    <t>John Lackey, Lackey</t>
+  </si>
+  <si>
+    <t>Lance Lynn, Lynn</t>
+  </si>
+  <si>
+    <t>Josh Beckett, Beckett</t>
+  </si>
+  <si>
+    <t>Josh Donaldson, Donaldson</t>
+  </si>
+  <si>
+    <t>Corey Seager, Seager</t>
+  </si>
+  <si>
+    <t>Manny Machado, Machado</t>
+  </si>
+  <si>
+    <t>Eric Hosmer, Hosmer</t>
+  </si>
+  <si>
+    <t>Carlos Beltran, Beltran</t>
+  </si>
+  <si>
+    <t>Didi Gregorius, Gregorius</t>
+  </si>
+  <si>
+    <t>Jacob deGrom, deGrom</t>
+  </si>
+  <si>
+    <t>Francisco Lindor, Lindor</t>
+  </si>
+  <si>
+    <t>Ervin Santana, Santana</t>
+  </si>
+  <si>
+    <t>Jared Walsh, Walsh</t>
+  </si>
+  <si>
+    <t>Troy Tulowitzki, Tulowitzki</t>
+  </si>
+  <si>
+    <t>Kurt Suzuki, Suzuki</t>
+  </si>
+  <si>
+    <t>Tyler Glasnow, Glasnow</t>
+  </si>
+  <si>
+    <t>B.J. Upton, BJ Upton, Upton</t>
+  </si>
+  <si>
+    <t>Phil Hughes, Hughes</t>
+  </si>
+  <si>
+    <t>Hanley Ramirez, Ramirez</t>
+  </si>
+  <si>
+    <t>Cedric Mullins, Mullins</t>
+  </si>
+  <si>
+    <t>Rich Hill, Hill</t>
+  </si>
+  <si>
+    <t>Todd Frazier, Frazier</t>
+  </si>
+  <si>
+    <t>DJ LeMahieu, LeMahieu</t>
+  </si>
+  <si>
+    <t>Nolan Arenado, Arenado</t>
+  </si>
+  <si>
+    <t>Javier Baez, Baez</t>
+  </si>
+  <si>
+    <t>Matt Wieters, Wieters</t>
+  </si>
+  <si>
+    <t>Ozzie Albies, Albies</t>
+  </si>
+  <si>
+    <t>Robinson Cano, Cano</t>
+  </si>
+  <si>
+    <t>Bryce Harper, Harper</t>
+  </si>
+  <si>
+    <t>Max Scherzer, Scherzer</t>
+  </si>
+  <si>
+    <t>Logan Webb, Webb</t>
+  </si>
+  <si>
+    <t>Corbin Burnes, Burnes</t>
+  </si>
+  <si>
+    <t>Torii Hunter, Hunter</t>
+  </si>
+  <si>
+    <t>J.D. Martinez, JD Martinez, Martinez</t>
+  </si>
+  <si>
+    <t>Jhonny Peralta, Peralta</t>
+  </si>
+  <si>
+    <t>James Paxton, Paxton</t>
+  </si>
+  <si>
+    <t>Stephen Strasburg, Strasburg</t>
+  </si>
+  <si>
+    <t>Kris Bryant, Bryant</t>
+  </si>
+  <si>
+    <t>Justin Upton, Upton</t>
+  </si>
+  <si>
+    <t>Shane McClanahan, McClanahan</t>
+  </si>
+  <si>
+    <t>Dee Gordon, Dee Strange-Gordon, Strange-Gordon, Gordon</t>
+  </si>
+  <si>
+    <t>Nelson Velázquez, Nelson Velazquez, Velázquez, Velazquez</t>
+  </si>
+  <si>
+    <t>Magglio Ordóñez, Magglio Ordonez, Ordóñez, Ordonez, Magglio</t>
+  </si>
+  <si>
+    <t>Ronald Acuña, Ronald Acuna, Acuña, Acuna</t>
   </si>
 </sst>
 </file>
@@ -2028,13 +2554,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -2062,7 +2589,7 @@
         <v>531</v>
       </c>
       <c r="D2" t="s">
-        <v>353</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2076,7 +2603,7 @@
         <v>360</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2090,7 +2617,7 @@
         <v>520</v>
       </c>
       <c r="D4" t="s">
-        <v>342</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2104,7 +2631,7 @@
         <v>409</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2118,7 +2645,7 @@
         <v>480</v>
       </c>
       <c r="D6" t="s">
-        <v>302</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2132,7 +2659,7 @@
         <v>432</v>
       </c>
       <c r="D7" t="s">
-        <v>254</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2146,7 +2673,7 @@
         <v>478</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2160,7 +2687,7 @@
         <v>429</v>
       </c>
       <c r="D9" t="s">
-        <v>251</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2174,7 +2701,7 @@
         <v>473</v>
       </c>
       <c r="D10" t="s">
-        <v>295</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -2188,7 +2715,7 @@
         <v>494</v>
       </c>
       <c r="D11" t="s">
-        <v>316</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -2202,7 +2729,7 @@
         <v>382</v>
       </c>
       <c r="D12" t="s">
-        <v>204</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -2216,7 +2743,7 @@
         <v>437</v>
       </c>
       <c r="D13" t="s">
-        <v>259</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2230,7 +2757,7 @@
         <v>428</v>
       </c>
       <c r="D14" t="s">
-        <v>250</v>
+        <v>550</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -2244,7 +2771,7 @@
         <v>398</v>
       </c>
       <c r="D15" t="s">
-        <v>220</v>
+        <v>551</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -2258,7 +2785,7 @@
         <v>495</v>
       </c>
       <c r="D16" t="s">
-        <v>317</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2272,7 +2799,7 @@
         <v>535</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>553</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2286,7 +2813,7 @@
         <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>197</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2300,7 +2827,7 @@
         <v>361</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2314,7 +2841,7 @@
         <v>499</v>
       </c>
       <c r="D20" t="s">
-        <v>321</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2328,7 +2855,7 @@
         <v>385</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2342,7 +2869,7 @@
         <v>365</v>
       </c>
       <c r="D22" t="s">
-        <v>187</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2356,7 +2883,7 @@
         <v>532</v>
       </c>
       <c r="D23" t="s">
-        <v>354</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2370,7 +2897,7 @@
         <v>513</v>
       </c>
       <c r="D24" t="s">
-        <v>335</v>
+        <v>560</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2384,7 +2911,7 @@
         <v>424</v>
       </c>
       <c r="D25" t="s">
-        <v>246</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2398,7 +2925,7 @@
         <v>451</v>
       </c>
       <c r="D26" t="s">
-        <v>273</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2412,7 +2939,7 @@
         <v>367</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2426,7 +2953,7 @@
         <v>450</v>
       </c>
       <c r="D28" t="s">
-        <v>272</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2440,7 +2967,7 @@
         <v>416</v>
       </c>
       <c r="D29" t="s">
-        <v>238</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2454,7 +2981,7 @@
         <v>430</v>
       </c>
       <c r="D30" t="s">
-        <v>252</v>
+        <v>566</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2468,7 +2995,7 @@
         <v>446</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>567</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2482,7 +3009,7 @@
         <v>394</v>
       </c>
       <c r="D32" t="s">
-        <v>216</v>
+        <v>568</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -2496,7 +3023,7 @@
         <v>381</v>
       </c>
       <c r="D33" t="s">
-        <v>203</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -2510,7 +3037,7 @@
         <v>397</v>
       </c>
       <c r="D34" t="s">
-        <v>219</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -2524,7 +3051,7 @@
         <v>433</v>
       </c>
       <c r="D35" t="s">
-        <v>255</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -2538,7 +3065,7 @@
         <v>468</v>
       </c>
       <c r="D36" t="s">
-        <v>290</v>
+        <v>572</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -2552,7 +3079,7 @@
         <v>486</v>
       </c>
       <c r="D37" t="s">
-        <v>308</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -2566,7 +3093,7 @@
         <v>483</v>
       </c>
       <c r="D38" t="s">
-        <v>305</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2580,7 +3107,7 @@
         <v>421</v>
       </c>
       <c r="D39" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -2594,7 +3121,7 @@
         <v>517</v>
       </c>
       <c r="D40" t="s">
-        <v>339</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2608,7 +3135,7 @@
         <v>404</v>
       </c>
       <c r="D41" t="s">
-        <v>226</v>
+        <v>577</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2622,7 +3149,7 @@
         <v>456</v>
       </c>
       <c r="D42" t="s">
-        <v>278</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -2636,7 +3163,7 @@
         <v>447</v>
       </c>
       <c r="D43" t="s">
-        <v>269</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2650,7 +3177,7 @@
         <v>400</v>
       </c>
       <c r="D44" t="s">
-        <v>222</v>
+        <v>580</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -2664,7 +3191,7 @@
         <v>371</v>
       </c>
       <c r="D45" t="s">
-        <v>193</v>
+        <v>581</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2678,7 +3205,7 @@
         <v>469</v>
       </c>
       <c r="D46" t="s">
-        <v>291</v>
+        <v>582</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2692,7 +3219,7 @@
         <v>444</v>
       </c>
       <c r="D47" t="s">
-        <v>266</v>
+        <v>583</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -2706,7 +3233,7 @@
         <v>370</v>
       </c>
       <c r="D48" t="s">
-        <v>192</v>
+        <v>584</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2720,7 +3247,7 @@
         <v>487</v>
       </c>
       <c r="D49" t="s">
-        <v>309</v>
+        <v>585</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2734,7 +3261,7 @@
         <v>462</v>
       </c>
       <c r="D50" t="s">
-        <v>284</v>
+        <v>586</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2748,7 +3275,7 @@
         <v>511</v>
       </c>
       <c r="D51" t="s">
-        <v>333</v>
+        <v>587</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -2762,7 +3289,7 @@
         <v>482</v>
       </c>
       <c r="D52" t="s">
-        <v>304</v>
+        <v>588</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2776,7 +3303,7 @@
         <v>508</v>
       </c>
       <c r="D53" t="s">
-        <v>330</v>
+        <v>589</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2790,7 +3317,7 @@
         <v>399</v>
       </c>
       <c r="D54" t="s">
-        <v>221</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -2804,7 +3331,7 @@
         <v>521</v>
       </c>
       <c r="D55" t="s">
-        <v>343</v>
+        <v>591</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2818,7 +3345,7 @@
         <v>477</v>
       </c>
       <c r="D56" t="s">
-        <v>299</v>
+        <v>592</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2832,7 +3359,7 @@
         <v>506</v>
       </c>
       <c r="D57" t="s">
-        <v>328</v>
+        <v>593</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -2846,7 +3373,7 @@
         <v>413</v>
       </c>
       <c r="D58" t="s">
-        <v>235</v>
+        <v>594</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -2860,7 +3387,7 @@
         <v>403</v>
       </c>
       <c r="D59" t="s">
-        <v>225</v>
+        <v>595</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2874,7 +3401,7 @@
         <v>514</v>
       </c>
       <c r="D60" t="s">
-        <v>336</v>
+        <v>596</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -2888,7 +3415,7 @@
         <v>510</v>
       </c>
       <c r="D61" t="s">
-        <v>332</v>
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2902,7 +3429,7 @@
         <v>496</v>
       </c>
       <c r="D62" t="s">
-        <v>318</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2916,7 +3443,7 @@
         <v>415</v>
       </c>
       <c r="D63" t="s">
-        <v>237</v>
+        <v>599</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2930,7 +3457,7 @@
         <v>466</v>
       </c>
       <c r="D64" t="s">
-        <v>288</v>
+        <v>600</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2944,7 +3471,7 @@
         <v>472</v>
       </c>
       <c r="D65" t="s">
-        <v>294</v>
+        <v>601</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2958,7 +3485,7 @@
         <v>505</v>
       </c>
       <c r="D66" t="s">
-        <v>327</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2972,7 +3499,7 @@
         <v>443</v>
       </c>
       <c r="D67" t="s">
-        <v>265</v>
+        <v>603</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2986,7 +3513,7 @@
         <v>362</v>
       </c>
       <c r="D68" t="s">
-        <v>184</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -3000,7 +3527,7 @@
         <v>368</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>605</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -3014,7 +3541,7 @@
         <v>374</v>
       </c>
       <c r="D70" t="s">
-        <v>196</v>
+        <v>606</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -3028,7 +3555,7 @@
         <v>378</v>
       </c>
       <c r="D71" t="s">
-        <v>200</v>
+        <v>607</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -3042,7 +3569,7 @@
         <v>387</v>
       </c>
       <c r="D72" t="s">
-        <v>209</v>
+        <v>608</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -3056,7 +3583,7 @@
         <v>442</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>609</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -3070,7 +3597,7 @@
         <v>533</v>
       </c>
       <c r="D74" t="s">
-        <v>355</v>
+        <v>610</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -3084,7 +3611,7 @@
         <v>500</v>
       </c>
       <c r="D75" t="s">
-        <v>322</v>
+        <v>611</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -3098,7 +3625,7 @@
         <v>467</v>
       </c>
       <c r="D76" t="s">
-        <v>289</v>
+        <v>612</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -3112,7 +3639,7 @@
         <v>529</v>
       </c>
       <c r="D77" t="s">
-        <v>351</v>
+        <v>613</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -3126,7 +3653,7 @@
         <v>434</v>
       </c>
       <c r="D78" t="s">
-        <v>256</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -3140,7 +3667,7 @@
         <v>364</v>
       </c>
       <c r="D79" t="s">
-        <v>186</v>
+        <v>615</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -3154,7 +3681,7 @@
         <v>485</v>
       </c>
       <c r="D80" t="s">
-        <v>307</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
@@ -3168,7 +3695,7 @@
         <v>440</v>
       </c>
       <c r="D81" t="s">
-        <v>262</v>
+        <v>617</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
@@ -3182,7 +3709,7 @@
         <v>454</v>
       </c>
       <c r="D82" t="s">
-        <v>276</v>
+        <v>618</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3196,7 +3723,7 @@
         <v>484</v>
       </c>
       <c r="D83" t="s">
-        <v>306</v>
+        <v>619</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3210,7 +3737,7 @@
         <v>453</v>
       </c>
       <c r="D84" t="s">
-        <v>275</v>
+        <v>620</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3224,7 +3751,7 @@
         <v>373</v>
       </c>
       <c r="D85" t="s">
-        <v>195</v>
+        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3238,7 +3765,7 @@
         <v>490</v>
       </c>
       <c r="D86" t="s">
-        <v>312</v>
+        <v>622</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -3252,7 +3779,7 @@
         <v>455</v>
       </c>
       <c r="D87" t="s">
-        <v>277</v>
+        <v>623</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3266,7 +3793,7 @@
         <v>401</v>
       </c>
       <c r="D88" t="s">
-        <v>223</v>
+        <v>624</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3280,7 +3807,7 @@
         <v>458</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>625</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -3294,7 +3821,7 @@
         <v>528</v>
       </c>
       <c r="D90" t="s">
-        <v>350</v>
+        <v>626</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3308,7 +3835,7 @@
         <v>512</v>
       </c>
       <c r="D91" t="s">
-        <v>334</v>
+        <v>627</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -3322,7 +3849,7 @@
         <v>493</v>
       </c>
       <c r="D92" t="s">
-        <v>315</v>
+        <v>628</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3336,7 +3863,7 @@
         <v>406</v>
       </c>
       <c r="D93" t="s">
-        <v>228</v>
+        <v>629</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3350,7 +3877,7 @@
         <v>489</v>
       </c>
       <c r="D94" t="s">
-        <v>311</v>
+        <v>630</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3364,7 +3891,7 @@
         <v>536</v>
       </c>
       <c r="D95" t="s">
-        <v>358</v>
+        <v>631</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3378,7 +3905,7 @@
         <v>402</v>
       </c>
       <c r="D96" t="s">
-        <v>539</v>
+        <v>712</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3392,7 +3919,7 @@
         <v>463</v>
       </c>
       <c r="D97" t="s">
-        <v>285</v>
+        <v>632</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3406,7 +3933,7 @@
         <v>388</v>
       </c>
       <c r="D98" t="s">
-        <v>210</v>
+        <v>633</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3420,7 +3947,7 @@
         <v>418</v>
       </c>
       <c r="D99" t="s">
-        <v>240</v>
+        <v>634</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3434,7 +3961,7 @@
         <v>423</v>
       </c>
       <c r="D100" t="s">
-        <v>245</v>
+        <v>635</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3448,7 +3975,7 @@
         <v>390</v>
       </c>
       <c r="D101" t="s">
-        <v>212</v>
+        <v>636</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3462,7 +3989,7 @@
         <v>526</v>
       </c>
       <c r="D102" t="s">
-        <v>348</v>
+        <v>637</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -3476,7 +4003,7 @@
         <v>392</v>
       </c>
       <c r="D103" t="s">
-        <v>214</v>
+        <v>638</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -3490,7 +4017,7 @@
         <v>445</v>
       </c>
       <c r="D104" t="s">
-        <v>267</v>
+        <v>639</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -3504,7 +4031,7 @@
         <v>537</v>
       </c>
       <c r="D105" t="s">
-        <v>359</v>
+        <v>640</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -3518,7 +4045,7 @@
         <v>525</v>
       </c>
       <c r="D106" t="s">
-        <v>347</v>
+        <v>641</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -3532,7 +4059,7 @@
         <v>410</v>
       </c>
       <c r="D107" t="s">
-        <v>232</v>
+        <v>642</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -3546,7 +4073,7 @@
         <v>476</v>
       </c>
       <c r="D108" t="s">
-        <v>298</v>
+        <v>643</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -3560,7 +4087,7 @@
         <v>534</v>
       </c>
       <c r="D109" t="s">
-        <v>356</v>
+        <v>644</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -3574,7 +4101,7 @@
         <v>507</v>
       </c>
       <c r="D110" t="s">
-        <v>329</v>
+        <v>645</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -3588,7 +4115,7 @@
         <v>427</v>
       </c>
       <c r="D111" t="s">
-        <v>249</v>
+        <v>646</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -3602,7 +4129,7 @@
         <v>419</v>
       </c>
       <c r="D112" t="s">
-        <v>241</v>
+        <v>647</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -3616,7 +4143,7 @@
         <v>488</v>
       </c>
       <c r="D113" t="s">
-        <v>543</v>
+        <v>713</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -3630,7 +4157,7 @@
         <v>372</v>
       </c>
       <c r="D114" t="s">
-        <v>194</v>
+        <v>648</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -3644,7 +4171,7 @@
         <v>438</v>
       </c>
       <c r="D115" t="s">
-        <v>260</v>
+        <v>649</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3658,7 +4185,7 @@
         <v>376</v>
       </c>
       <c r="D116" t="s">
-        <v>198</v>
+        <v>650</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -3672,7 +4199,7 @@
         <v>363</v>
       </c>
       <c r="D117" t="s">
-        <v>185</v>
+        <v>651</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -3686,7 +4213,7 @@
         <v>395</v>
       </c>
       <c r="D118" t="s">
-        <v>217</v>
+        <v>652</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -3700,7 +4227,7 @@
         <v>527</v>
       </c>
       <c r="D119" t="s">
-        <v>349</v>
+        <v>653</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -3714,7 +4241,7 @@
         <v>474</v>
       </c>
       <c r="D120" t="s">
-        <v>296</v>
+        <v>654</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -3728,7 +4255,7 @@
         <v>379</v>
       </c>
       <c r="D121" t="s">
-        <v>201</v>
+        <v>655</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3742,7 +4269,7 @@
         <v>383</v>
       </c>
       <c r="D122" t="s">
-        <v>205</v>
+        <v>656</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -3756,7 +4283,7 @@
         <v>475</v>
       </c>
       <c r="D123" t="s">
-        <v>297</v>
+        <v>657</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -3770,7 +4297,7 @@
         <v>530</v>
       </c>
       <c r="D124" t="s">
-        <v>352</v>
+        <v>658</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -3784,7 +4311,7 @@
         <v>366</v>
       </c>
       <c r="D125" t="s">
-        <v>188</v>
+        <v>659</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -3798,7 +4325,7 @@
         <v>389</v>
       </c>
       <c r="D126" t="s">
-        <v>211</v>
+        <v>660</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -3812,7 +4339,7 @@
         <v>414</v>
       </c>
       <c r="D127" t="s">
-        <v>236</v>
+        <v>661</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -3826,7 +4353,7 @@
         <v>459</v>
       </c>
       <c r="D128" t="s">
-        <v>281</v>
+        <v>662</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -3840,7 +4367,7 @@
         <v>435</v>
       </c>
       <c r="D129" t="s">
-        <v>257</v>
+        <v>663</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -3854,7 +4381,7 @@
         <v>411</v>
       </c>
       <c r="D130" t="s">
-        <v>233</v>
+        <v>664</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -3868,7 +4395,7 @@
         <v>439</v>
       </c>
       <c r="D131" t="s">
-        <v>261</v>
+        <v>665</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -3882,7 +4409,7 @@
         <v>516</v>
       </c>
       <c r="D132" t="s">
-        <v>338</v>
+        <v>666</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -3896,7 +4423,7 @@
         <v>523</v>
       </c>
       <c r="D133" t="s">
-        <v>345</v>
+        <v>667</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -3910,7 +4437,7 @@
         <v>498</v>
       </c>
       <c r="D134" t="s">
-        <v>320</v>
+        <v>668</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -3924,7 +4451,7 @@
         <v>386</v>
       </c>
       <c r="D135" t="s">
-        <v>208</v>
+        <v>669</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -3938,7 +4465,7 @@
         <v>452</v>
       </c>
       <c r="D136" t="s">
-        <v>274</v>
+        <v>670</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -3952,7 +4479,7 @@
         <v>502</v>
       </c>
       <c r="D137" t="s">
-        <v>324</v>
+        <v>671</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -3966,7 +4493,7 @@
         <v>441</v>
       </c>
       <c r="D138" t="s">
-        <v>263</v>
+        <v>672</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -3980,7 +4507,7 @@
         <v>464</v>
       </c>
       <c r="D139" t="s">
-        <v>286</v>
+        <v>673</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -3994,7 +4521,7 @@
         <v>448</v>
       </c>
       <c r="D140" t="s">
-        <v>270</v>
+        <v>674</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -4008,7 +4535,7 @@
         <v>449</v>
       </c>
       <c r="D141" t="s">
-        <v>271</v>
+        <v>675</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -4022,7 +4549,7 @@
         <v>393</v>
       </c>
       <c r="D142" t="s">
-        <v>215</v>
+        <v>676</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -4036,7 +4563,7 @@
         <v>471</v>
       </c>
       <c r="D143" t="s">
-        <v>293</v>
+        <v>677</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -4050,7 +4577,7 @@
         <v>407</v>
       </c>
       <c r="D144" t="s">
-        <v>229</v>
+        <v>678</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -4064,7 +4591,7 @@
         <v>380</v>
       </c>
       <c r="D145" t="s">
-        <v>202</v>
+        <v>679</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -4078,7 +4605,7 @@
         <v>470</v>
       </c>
       <c r="D146" t="s">
-        <v>542</v>
+        <v>714</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -4092,7 +4619,7 @@
         <v>405</v>
       </c>
       <c r="D147" t="s">
-        <v>227</v>
+        <v>680</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -4106,7 +4633,7 @@
         <v>422</v>
       </c>
       <c r="D148" t="s">
-        <v>244</v>
+        <v>681</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -4120,7 +4647,7 @@
         <v>412</v>
       </c>
       <c r="D149" t="s">
-        <v>234</v>
+        <v>682</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -4134,7 +4661,7 @@
         <v>408</v>
       </c>
       <c r="D150" t="s">
-        <v>230</v>
+        <v>683</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -4148,7 +4675,7 @@
         <v>426</v>
       </c>
       <c r="D151" t="s">
-        <v>248</v>
+        <v>684</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -4162,7 +4689,7 @@
         <v>522</v>
       </c>
       <c r="D152" t="s">
-        <v>344</v>
+        <v>685</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -4176,7 +4703,7 @@
         <v>461</v>
       </c>
       <c r="D153" t="s">
-        <v>283</v>
+        <v>686</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -4190,7 +4717,7 @@
         <v>524</v>
       </c>
       <c r="D154" t="s">
-        <v>346</v>
+        <v>687</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -4204,7 +4731,7 @@
         <v>369</v>
       </c>
       <c r="D155" t="s">
-        <v>538</v>
+        <v>688</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4218,7 +4745,7 @@
         <v>497</v>
       </c>
       <c r="D156" t="s">
-        <v>319</v>
+        <v>689</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -4232,7 +4759,7 @@
         <v>417</v>
       </c>
       <c r="D157" t="s">
-        <v>239</v>
+        <v>690</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -4246,7 +4773,7 @@
         <v>384</v>
       </c>
       <c r="D158" t="s">
-        <v>206</v>
+        <v>691</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -4260,7 +4787,7 @@
         <v>501</v>
       </c>
       <c r="D159" t="s">
-        <v>323</v>
+        <v>692</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -4274,7 +4801,7 @@
         <v>518</v>
       </c>
       <c r="D160" t="s">
-        <v>340</v>
+        <v>693</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -4288,7 +4815,7 @@
         <v>396</v>
       </c>
       <c r="D161" t="s">
-        <v>218</v>
+        <v>694</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -4302,7 +4829,7 @@
         <v>491</v>
       </c>
       <c r="D162" t="s">
-        <v>313</v>
+        <v>695</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -4316,7 +4843,7 @@
         <v>431</v>
       </c>
       <c r="D163" t="s">
-        <v>253</v>
+        <v>696</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -4330,7 +4857,7 @@
         <v>479</v>
       </c>
       <c r="D164" t="s">
-        <v>301</v>
+        <v>697</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -4344,7 +4871,7 @@
         <v>492</v>
       </c>
       <c r="D165" t="s">
-        <v>314</v>
+        <v>698</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -4358,7 +4885,7 @@
         <v>503</v>
       </c>
       <c r="D166" t="s">
-        <v>325</v>
+        <v>699</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -4372,7 +4899,7 @@
         <v>504</v>
       </c>
       <c r="D167" t="s">
-        <v>544</v>
+        <v>715</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -4386,7 +4913,7 @@
         <v>377</v>
       </c>
       <c r="D168" t="s">
-        <v>199</v>
+        <v>700</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -4400,7 +4927,7 @@
         <v>481</v>
       </c>
       <c r="D169" t="s">
-        <v>303</v>
+        <v>701</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -4414,7 +4941,7 @@
         <v>465</v>
       </c>
       <c r="D170" t="s">
-        <v>287</v>
+        <v>702</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -4428,7 +4955,7 @@
         <v>391</v>
       </c>
       <c r="D171" t="s">
-        <v>213</v>
+        <v>703</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -4442,7 +4969,7 @@
         <v>519</v>
       </c>
       <c r="D172" t="s">
-        <v>341</v>
+        <v>704</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -4456,7 +4983,7 @@
         <v>420</v>
       </c>
       <c r="D173" t="s">
-        <v>540</v>
+        <v>705</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -4470,7 +4997,7 @@
         <v>436</v>
       </c>
       <c r="D174" t="s">
-        <v>258</v>
+        <v>706</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -4484,7 +5011,7 @@
         <v>425</v>
       </c>
       <c r="D175" t="s">
-        <v>247</v>
+        <v>707</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -4498,7 +5025,7 @@
         <v>515</v>
       </c>
       <c r="D176" t="s">
-        <v>337</v>
+        <v>708</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -4512,7 +5039,7 @@
         <v>460</v>
       </c>
       <c r="D177" t="s">
-        <v>282</v>
+        <v>709</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -4526,7 +5053,7 @@
         <v>457</v>
       </c>
       <c r="D178" t="s">
-        <v>279</v>
+        <v>710</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -4540,7 +5067,7 @@
         <v>509</v>
       </c>
       <c r="D179" t="s">
-        <v>331</v>
+        <v>711</v>
       </c>
     </row>
   </sheetData>

--- a/player_schedule.xlsx
+++ b/player_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zachwayne/Documents/GitHub/MLB-Extravaganza/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1427246B-8576-F549-861E-5AB748EAA5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{150AEEF6-E1D8-6D40-8D24-1F686334D075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1892,9 +1892,6 @@
     <t>Joey Votto, Votto</t>
   </si>
   <si>
-    <t>Julio Rodríguez, Rodríguez</t>
-  </si>
-  <si>
     <t>Mike Moustakas, Moustakas</t>
   </si>
   <si>
@@ -1907,9 +1904,6 @@
     <t>Noah Syndergaard, Syndergaard</t>
   </si>
   <si>
-    <t>Julio Urías, Urías</t>
-  </si>
-  <si>
     <t>David Wright, Wright</t>
   </si>
   <si>
@@ -2184,6 +2178,12 @@
   </si>
   <si>
     <t>Ronald Acuña, Ronald Acuna, Acuña, Acuna</t>
+  </si>
+  <si>
+    <t>Julio Rodríguez, Rodríguez, Rodriguez</t>
+  </si>
+  <si>
+    <t>Julio Urías, Urías, Urias</t>
   </si>
 </sst>
 </file>
@@ -2554,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="A162" zoomScale="173" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3709,7 +3709,7 @@
         <v>454</v>
       </c>
       <c r="D82" t="s">
-        <v>618</v>
+        <v>714</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
@@ -3723,7 +3723,7 @@
         <v>484</v>
       </c>
       <c r="D83" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
@@ -3737,7 +3737,7 @@
         <v>453</v>
       </c>
       <c r="D84" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
@@ -3751,7 +3751,7 @@
         <v>373</v>
       </c>
       <c r="D85" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -3765,7 +3765,7 @@
         <v>490</v>
       </c>
       <c r="D86" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
@@ -3779,7 +3779,7 @@
         <v>455</v>
       </c>
       <c r="D87" t="s">
-        <v>623</v>
+        <v>715</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -3793,7 +3793,7 @@
         <v>401</v>
       </c>
       <c r="D88" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
@@ -3807,7 +3807,7 @@
         <v>458</v>
       </c>
       <c r="D89" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -3821,7 +3821,7 @@
         <v>528</v>
       </c>
       <c r="D90" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -3835,7 +3835,7 @@
         <v>512</v>
       </c>
       <c r="D91" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -3849,7 +3849,7 @@
         <v>493</v>
       </c>
       <c r="D92" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
@@ -3863,7 +3863,7 @@
         <v>406</v>
       </c>
       <c r="D93" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -3877,7 +3877,7 @@
         <v>489</v>
       </c>
       <c r="D94" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
@@ -3891,7 +3891,7 @@
         <v>536</v>
       </c>
       <c r="D95" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
@@ -3905,7 +3905,7 @@
         <v>402</v>
       </c>
       <c r="D96" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
@@ -3919,7 +3919,7 @@
         <v>463</v>
       </c>
       <c r="D97" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
@@ -3933,7 +3933,7 @@
         <v>388</v>
       </c>
       <c r="D98" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
@@ -3947,7 +3947,7 @@
         <v>418</v>
       </c>
       <c r="D99" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
@@ -3961,7 +3961,7 @@
         <v>423</v>
       </c>
       <c r="D100" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>390</v>
       </c>
       <c r="D101" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
@@ -3989,7 +3989,7 @@
         <v>526</v>
       </c>
       <c r="D102" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -4003,7 +4003,7 @@
         <v>392</v>
       </c>
       <c r="D103" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -4017,7 +4017,7 @@
         <v>445</v>
       </c>
       <c r="D104" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
@@ -4031,7 +4031,7 @@
         <v>537</v>
       </c>
       <c r="D105" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
@@ -4045,7 +4045,7 @@
         <v>525</v>
       </c>
       <c r="D106" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -4059,7 +4059,7 @@
         <v>410</v>
       </c>
       <c r="D107" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
@@ -4073,7 +4073,7 @@
         <v>476</v>
       </c>
       <c r="D108" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -4087,7 +4087,7 @@
         <v>534</v>
       </c>
       <c r="D109" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
@@ -4101,7 +4101,7 @@
         <v>507</v>
       </c>
       <c r="D110" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
@@ -4115,7 +4115,7 @@
         <v>427</v>
       </c>
       <c r="D111" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
@@ -4129,7 +4129,7 @@
         <v>419</v>
       </c>
       <c r="D112" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
@@ -4143,7 +4143,7 @@
         <v>488</v>
       </c>
       <c r="D113" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -4157,7 +4157,7 @@
         <v>372</v>
       </c>
       <c r="D114" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -4171,7 +4171,7 @@
         <v>438</v>
       </c>
       <c r="D115" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -4185,7 +4185,7 @@
         <v>376</v>
       </c>
       <c r="D116" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
@@ -4199,7 +4199,7 @@
         <v>363</v>
       </c>
       <c r="D117" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
@@ -4213,7 +4213,7 @@
         <v>395</v>
       </c>
       <c r="D118" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
@@ -4227,7 +4227,7 @@
         <v>527</v>
       </c>
       <c r="D119" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
@@ -4241,7 +4241,7 @@
         <v>474</v>
       </c>
       <c r="D120" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
@@ -4255,7 +4255,7 @@
         <v>379</v>
       </c>
       <c r="D121" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -4269,7 +4269,7 @@
         <v>383</v>
       </c>
       <c r="D122" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
@@ -4283,7 +4283,7 @@
         <v>475</v>
       </c>
       <c r="D123" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
@@ -4297,7 +4297,7 @@
         <v>530</v>
       </c>
       <c r="D124" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
@@ -4311,7 +4311,7 @@
         <v>366</v>
       </c>
       <c r="D125" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
@@ -4325,7 +4325,7 @@
         <v>389</v>
       </c>
       <c r="D126" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -4339,7 +4339,7 @@
         <v>414</v>
       </c>
       <c r="D127" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -4353,7 +4353,7 @@
         <v>459</v>
       </c>
       <c r="D128" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
@@ -4367,7 +4367,7 @@
         <v>435</v>
       </c>
       <c r="D129" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
@@ -4381,7 +4381,7 @@
         <v>411</v>
       </c>
       <c r="D130" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.2">
@@ -4395,7 +4395,7 @@
         <v>439</v>
       </c>
       <c r="D131" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
@@ -4409,7 +4409,7 @@
         <v>516</v>
       </c>
       <c r="D132" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
@@ -4423,7 +4423,7 @@
         <v>523</v>
       </c>
       <c r="D133" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.2">
@@ -4437,7 +4437,7 @@
         <v>498</v>
       </c>
       <c r="D134" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
@@ -4451,7 +4451,7 @@
         <v>386</v>
       </c>
       <c r="D135" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
@@ -4465,7 +4465,7 @@
         <v>452</v>
       </c>
       <c r="D136" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
@@ -4479,7 +4479,7 @@
         <v>502</v>
       </c>
       <c r="D137" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
@@ -4493,7 +4493,7 @@
         <v>441</v>
       </c>
       <c r="D138" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -4507,7 +4507,7 @@
         <v>464</v>
       </c>
       <c r="D139" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -4521,7 +4521,7 @@
         <v>448</v>
       </c>
       <c r="D140" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -4535,7 +4535,7 @@
         <v>449</v>
       </c>
       <c r="D141" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -4549,7 +4549,7 @@
         <v>393</v>
       </c>
       <c r="D142" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
@@ -4563,7 +4563,7 @@
         <v>471</v>
       </c>
       <c r="D143" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
@@ -4577,7 +4577,7 @@
         <v>407</v>
       </c>
       <c r="D144" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
@@ -4591,7 +4591,7 @@
         <v>380</v>
       </c>
       <c r="D145" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
@@ -4605,7 +4605,7 @@
         <v>470</v>
       </c>
       <c r="D146" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
@@ -4619,7 +4619,7 @@
         <v>405</v>
       </c>
       <c r="D147" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
@@ -4633,7 +4633,7 @@
         <v>422</v>
       </c>
       <c r="D148" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
@@ -4647,7 +4647,7 @@
         <v>412</v>
       </c>
       <c r="D149" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
@@ -4661,7 +4661,7 @@
         <v>408</v>
       </c>
       <c r="D150" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
@@ -4675,7 +4675,7 @@
         <v>426</v>
       </c>
       <c r="D151" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
@@ -4689,7 +4689,7 @@
         <v>522</v>
       </c>
       <c r="D152" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -4703,7 +4703,7 @@
         <v>461</v>
       </c>
       <c r="D153" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,7 +4717,7 @@
         <v>524</v>
       </c>
       <c r="D154" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
@@ -4731,7 +4731,7 @@
         <v>369</v>
       </c>
       <c r="D155" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
@@ -4745,7 +4745,7 @@
         <v>497</v>
       </c>
       <c r="D156" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
@@ -4759,7 +4759,7 @@
         <v>417</v>
       </c>
       <c r="D157" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
@@ -4773,7 +4773,7 @@
         <v>384</v>
       </c>
       <c r="D158" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
@@ -4787,7 +4787,7 @@
         <v>501</v>
       </c>
       <c r="D159" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
@@ -4801,7 +4801,7 @@
         <v>518</v>
       </c>
       <c r="D160" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
@@ -4815,7 +4815,7 @@
         <v>396</v>
       </c>
       <c r="D161" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
@@ -4829,7 +4829,7 @@
         <v>491</v>
       </c>
       <c r="D162" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -4843,7 +4843,7 @@
         <v>431</v>
       </c>
       <c r="D163" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
@@ -4857,7 +4857,7 @@
         <v>479</v>
       </c>
       <c r="D164" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -4871,7 +4871,7 @@
         <v>492</v>
       </c>
       <c r="D165" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -4885,7 +4885,7 @@
         <v>503</v>
       </c>
       <c r="D166" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
@@ -4899,7 +4899,7 @@
         <v>504</v>
       </c>
       <c r="D167" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
@@ -4913,7 +4913,7 @@
         <v>377</v>
       </c>
       <c r="D168" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
@@ -4927,7 +4927,7 @@
         <v>481</v>
       </c>
       <c r="D169" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
@@ -4941,7 +4941,7 @@
         <v>465</v>
       </c>
       <c r="D170" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
@@ -4955,7 +4955,7 @@
         <v>391</v>
       </c>
       <c r="D171" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
@@ -4969,7 +4969,7 @@
         <v>519</v>
       </c>
       <c r="D172" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
@@ -4983,7 +4983,7 @@
         <v>420</v>
       </c>
       <c r="D173" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
@@ -4997,7 +4997,7 @@
         <v>436</v>
       </c>
       <c r="D174" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -5011,7 +5011,7 @@
         <v>425</v>
       </c>
       <c r="D175" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
@@ -5025,7 +5025,7 @@
         <v>515</v>
       </c>
       <c r="D176" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -5039,7 +5039,7 @@
         <v>460</v>
       </c>
       <c r="D177" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -5053,7 +5053,7 @@
         <v>457</v>
       </c>
       <c r="D178" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
@@ -5067,7 +5067,7 @@
         <v>509</v>
       </c>
       <c r="D179" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
